--- a/data/오픈마켓 노쇼핑 샘플 데이터.xlsx
+++ b/data/오픈마켓 노쇼핑 샘플 데이터.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'시트1'!$A$1:$U$102</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12348" uniqueCount="2855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13497" uniqueCount="3258">
   <si>
     <t>platform</t>
   </si>
@@ -15743,6 +15745,1737 @@
   </si>
   <si>
     <t>https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_000_YWxYL_main.png?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_001_icsph.png?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_002_ZpP2g.png?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_003_lH4iD.png?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_004_tB0lU.jpg?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_005_QeJ5n.jpg?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_006_mqulA.jpg?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_007_5ZHUq.jpg?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_008_9n00T.jpg?impolicy=resizeWatermark3&amp;isSecret=false, https://img2.joongna.com/cafe-article-data/live/2024/10/01/1079353395/1727755632891_009_QlpjB.jpg?impolicy=resizeWatermark3&amp;isSecret=false</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/282361023</t>
+  </si>
+  <si>
+    <t>야놀자 83%</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/282361023_{cnt}_1722411847_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>✔️본인인증 상점✔️
+3만원~10만원미만 가능
+실제금액에서 ❗️83프로만❗️ 입금하면 됩니다
+입금확인후 예약진행
+예약완료후 예약정보 전달드립니다
+준비된 한도 소진시 판매종료
+💡문자 &amp; 톡 보낼때
+- 숙소이름 or 링크 
+-예약날짜 
+-객실타입 
+-가격 
+-인원 
+-예약자성함 
+-전화번호 
+-도보차량이용유무
+🍯예약페이지 들어가서 캡쳐로 보내주시면 더더 간편합니다
+🚫예약완료시 취소절대불가🚫
+숙소자체에서 무료취소 되있어도 제가 해드린거라 취소가 절대 불가하니 신중히 주문부탁드립니다
+취소가 불가피할시 타인에서 양도하는 방법으로 해결하셔야합니다</t>
+  </si>
+  <si>
+    <t>판매완료</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/289296697</t>
+  </si>
+  <si>
+    <t>낙산 그랑베이 바이 쏘타스위트 숙박권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/289296697_{cnt}_1726292390_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>슈페리어 패밀리 샌디비치 퀸침대2개 배치 4인가능. 루프탑 수영장
+무인체크인 시스템 
+체크인 9월 16일 오후3시 
+체크아웃 9월 17일 오후1시까지
+입금 확인 후 예약번호 알려드립니다.
+#펜션 #리조트 #호텔</t>
+  </si>
+  <si>
+    <t>평택시 고덕면</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/279571016</t>
+  </si>
+  <si>
+    <t>마리나베이 서울 7.20 토 수영장 이용 가능 숙박 양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/279571016_{cnt}_1721119304_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>호텔 마리나베이 서울
+7.20 토 
+프리미어 패밀리 트윈 3인 기준
+루프탑 또는 실내수영장 이용 가능
+한강과 아라뱃길 조망
+현대프리미엄아울렛 개화역 김포공항 무료 셔틀버스 운행
+가벼운 호캉스 즐기실분 톡 주세요</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/291690078</t>
+  </si>
+  <si>
+    <t>이탈리아 피렌체 호텔 바바리아 2일 숙박권 판매합니다.</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/291690078_{cnt}_1727605186_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>이탈리아 피렌체 호텔 바바리아 2일 숙박권 판매합니다.
+원가보다 싸게 양도합니다.
+역사가 긴 호텔로 깔끔하게 유지되며 괜찮은 숙소입니다.
+더블베드 1개의 더블룸입니다.
+피렌체 여행하시는 분들께 좋은 숙소라고 생각합니다.
+구매 시 환불불가입니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/291311668</t>
+  </si>
+  <si>
+    <t>[호텔양도] 메리어트 AC 호텔 강남 호텔 12.24~25 양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/291311668_{cnt}_1727410950_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>[호텔양도] 메리어트 AC 호텔 강남 호텔 12.24~25 양도
+예약일 - 24.12.24~25
+금액 - 30만원
+혜택 - 14시 레이트체크아웃 + 여부에따라 방업그레이드 (두개다 가능하다면)
+직접 체크인후 키 전달하는 방식
+확정나시면 예약금 10%받습니다.
+현재 최저가 - 아고다~공홈 36만원 (세금포함)
+연락주세요.</t>
+  </si>
+  <si>
+    <t>은평구 녹번동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/289453083</t>
+  </si>
+  <si>
+    <t>일본 후쿠오카 호텔 양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/289453083_{cnt}_1727844841_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>벳푸역 부근 아마넥 유라레 호텔 슈페리어킹
+온천, 인피니티풀 있는 호텔
+12만원에 양도합니다
+당연히 갈수있을줄알고 환불불가 옵션으로 했는데
+근무일이 변경되어서 힘들게되었습니다 ㅠㅠ
+호텔측으로부터 예약자 이름변경 가능하다고 답변 받은 상태입니다
+날짜는 10/21~22 입니다
+현재 정가 세금, 수수료 포함 21.7만원 정도입니다</t>
+  </si>
+  <si>
+    <t>단원구 고잔동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/232332935</t>
+  </si>
+  <si>
+    <t>부산 기장 한화 호텔 마티에 오시리아(8.11~13) 양도합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/232332935_{cnt}_1691632104_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>부산 기장 신축 마티에 오시리아 2박3일(8.11~13 /금토일)
+양도합니다 예약후 갑자기 사정이 생겨서 못가게 되었습니다 
+- 스위트 오션뷰(방2,욕실2/ 4인정원)
+- 객실 정원까지 최상층 실내풀장 무료
+- 객실 정원까지 조식부페 20% 할인
+문의전화
+*************
+(꼭 이용하실분만 문자 부탁드립니다)</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/285691589</t>
+  </si>
+  <si>
+    <t>제주도 해비치호텔 스위트  오션뷰 주말가능</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/285691589_{cnt}_1727256437_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>성수기 연휴 말곤 주말 사용가능해요
+룸온니
+오션뷰에요~</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/277511034</t>
+  </si>
+  <si>
+    <t>(4인투숙무료가능)전주역 시그니처호텔 7/6 숙박 호텔 모텔 양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/277511034_{cnt}_1720157990_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>스타일러 구비된 레지던스 호텔입니다.
+4명까지 인원추가 없이 무료 투숙 가능합니다.
+트윈룸이라 침대 2개입니다.
+방안에 전자레인지, 드럼 세탁기도 있어요
+후기도 좋고 신축이고 블로그 후기보니 엄청 좋네요
+전주에서 제일 좋아보이는 신축으로 골랐지만
+제가 가는 여행지랑 위치랑 멀어서 다시 숙박 예약하려고 팝니다.
+안팔리면 제가 그냥 숙박하면되긴 합니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/289961421</t>
+  </si>
+  <si>
+    <t>라한호텔 숙박권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/289961421_{cnt}_1727317271_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>라한호텔 통합 숙박권입니다
+회사에서 받았는데 안써서 판매합니다
+혜택사항 사진 첨부해둔거 참고하시면 될것 같습니다
+울산 직거래 가능합니다</t>
+  </si>
+  <si>
+    <t>남구 옥동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/281086861</t>
+  </si>
+  <si>
+    <t>(최종 가격 인하) 경주 힐튼  (8/25 일-8/26월) 디럭스 패밀리</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/281086861_{cnt}_1723354365_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>경주 힐튼 취불 요금 Delux Family Room 예약건입니다.
+총 4인까지 투숙되는걸로 알고 있습니다.
+일정은 8월 25 (일) ~ 8월 26일 (월) [총 1박 2일]
+총 290,479원이 들았는데 갑자기 출국 일정이 잡혀서 갈수가 없게 되었습니다.
+(호텔에 문의하여 보니 날짜는 변경안되고 양도는 가능하다고 확인 받았습니다.)
+각각 일정에 대해서는 현재 취불 가격으로 올려놨고
+급하게 양도하는 관계로 쿨거래시 14만원에 양도하려고 합니다.
+(투숙시 유레카 수영장 50프로 할인)
+양도 과정은 다음과 같습니다.
+1. 양수인의 이름을 양도인에게 알려줌
+2. 양도인이 호텔에다가 양도 요청을 함
+3. 예약번호에 양수인 이름 올림
+[주의]
+1. 본 예약은 저의 등급(예: 골드, 다이아)이 적용되지 않습니다.
+2. 본 예약은 예약 번호에 + 양도인의 추가 투숙객의 성함을 올려놓는 형식입니다.</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/287758498_{cnt}_1727963733_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/292348479</t>
+  </si>
+  <si>
+    <t>파크로쉬 호텔 정선 10월 19일 토요일 숙박</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/292348479_{cnt}_1727956856_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>숙암트윈
+조식 뷔페 및 웰니스 2인 포함
+10. 19일 1박</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/218995733</t>
+  </si>
+  <si>
+    <t>주말숙박)드래곤시티 노보텔 앰배서더 용산 호텔 숙박권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/218995733_{cnt}_1727523806_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>선입금없이 예약해드리고 지류권 직거래 선호합니다.
+(10/5, 12/24,31불가)
+이용일자와 객실타입(번호) 확정하셔서 문자 부탁드려요.
+모든 객실 최대투숙 성인2+자녀2(더블/킹 or 트윈베드)
+모든 객실 실내수영장, 헬스장 무료
+*스위트 객실 사우나 무료*
+지류권(유효기간 24년 11월) - 날짜변경 가능(1박당 가격)
+1) 이비스 슈페리어 - 21만(마감)
+2) 노보텔 슈페리어 - 24만
+3) 노보텔 주니어스위트 - 29만
+4) 노보텔 디럭스스위트 - 46만(거실O, 욕조O, TV2대)
+프리미어라운지(조식뷔페, 티타임, 칵테일아워) 2인 포함
+*티타임 - 음료&amp;쿠키
+*칵테일아워 - 세미뷔페&amp;각종 주류 무제한
+☆ 홀케이크(이틀전 주문 필수)+와인1병 - 5만 제공 ☆
+☆ 커피 2인 쿠폰 - 1만 제공 ☆
+☆ 디너 예약시 20%할인 제공 ☆</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/98213789</t>
+  </si>
+  <si>
+    <t>호텔경영책</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/98213789_{cnt}_1551439403_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/262054940</t>
+  </si>
+  <si>
+    <t>조선팰리스 호텔 뷔페 식사귄</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/262054940_{cnt}_1715422577_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>조선팰리스 호텔 뷔페 식사권 입니다.
+1장당 185,000원권 2장 양도합니다.
+주중.주말 점심.저녁 언제라도 이용 가능합니다.
+부모님께 선물 드렸는데 병환으로 못 가시게 되어 양도합니다.
+시간이 5월 6일까지로 쓰여 있으나 호텔 측에 확인해 보니 발행일로부터 5년까지 사용할 수가 있다고 합니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/278333497</t>
+  </si>
+  <si>
+    <t>소노문 해운대 (8/2~8/3, 1박) 스탠다드 패밀리트윈</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/278333497_{cnt}_1721742202_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>[소노문 해운대] 예약
+[소노문 해운대] 예약
+● 회원번호 : 입금하시면 알려드립니다.
+● 예약번호 : 입금하시면 알려드립니다.
+● 이용자명 : 입금하시면 알려드립니다.
+● 입실일자 : 08/02(금)
+● 예약객실 : 스탠다드   패밀리 트윈 1박 1실
+■ 입실(Check-In): 15시, 퇴실(Check-Out): 11시
+■ 구매 후 , 환불은 안됩니다. 신중히 결정해 주세요
+■ 소노문 해운대 주차안내
+  주차장은 유료주차장으로 운영됩니다.
+- 주차요금: 20,000원
+- 기준: 1박2일 (15:00~익일 )
+※주차장이 협소한 관계로 대중교통 이용을 권유드립니다.
+※만차시에는 호텔 인근 유료주차장을 이용하여 주시기
+    바랍니다.
+※홈페이지 또는 소노예약센터(1588-4888)를 통하여 
+  이용하실 부대시설 운영상황을 반드시 확인하시기. 
+  바랍니다.
+※거래 후, 환불은 안됩니다. 신중히 결정해 주세요 
+  주차비 2만원있어서 비용 내립니다 
+   17만5천원 &gt;&gt;&gt; 15만5천원</t>
+  </si>
+  <si>
+    <t>동래구 수민동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/238074200</t>
+  </si>
+  <si>
+    <t>용산 노보텔 앰배서더 호텔 숙박권 주중 할인권(서울드래곤시티)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/238074200_{cnt}_1714388950_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>용산 서울드래곤시티에 있는 “노보텔 앰배서더” 숙박 주중 우대권입니다.(유효기간 24년 6월)
+*2장 이상만 거래합니다*
+주중(체크인:일~목) 110,000+부가세 10% 별도로 이용 가능한 할인권 입니다.
+‼️본 우대권 29,000원에 구매 후, 호텔에서 체크인 시 110,000+부가세 10% 지불해야 합니다‼️
+총 29,000 +110,000+부가세 11,000=150,000원에 이용 가능한 것
+해당 숙박권은 예약실에 숙박일 직접 지정하셔서 사용하면 됩니다.(수영장,헬스장 무료이용가능)
+환불 x</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/245041635</t>
+  </si>
+  <si>
+    <t>소노호텔&amp;리조트 워터파크 입장교환권 4장(1매 2인사용) 판매합니다.</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/245041635_{cnt}_1701589180_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>소노호텔&amp;리조트 워터파크 입장교환권 4장(1매 2인사용) 판매합니다.  총 8명 까지 입장가능합니다
+유효기간 2028년 11월 1일까지입니다
+직거래시 신도림역 1번출구에서 가능합니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/290254864</t>
+  </si>
+  <si>
+    <t>대명워터파크,소노호텔,리조트,워터파크</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290254864_{cnt}_1726836415_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>2매 4인가능이요
+29년 08월까지요</t>
+  </si>
+  <si>
+    <t>김포시 풍무동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/268979583</t>
+  </si>
+  <si>
+    <t>국내호텔 하얏트 조선 제주 신라 롯데 반얀트리 아난티 쏠비치 등등</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/268979583_{cnt}_1717389058_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>국내,해외 호텔 예약받습니다 
+국내 호텔 제휴업체 가능한선에서는 다 가능하며 해당일자에 룸이 남아있다면 언제든 가능합니다
+시스템정책상 투숙일기준 일주일 이상남은 일정이라면 다 가능합니다 
+하얏트,롯데,신라,라마다,메리어트,반얀트리,소노캄 등등 호텔업종은 다 가능하며 여행사 근무하는데 포인트가 많아 저렴하게 예약도와드리고있습니다
+알아보신 시중가에 최대 40%까지 할인해드리고있으니 많은 문의 주세요!</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/244603160</t>
+  </si>
+  <si>
+    <t>kb카드 소노호텔 리조트 워터파크 입장교환권 2매</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/244603160_{cnt}_1701248389_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>한장당 2인씩 입장 가능한 교환권입니다. 오션월드, 오션어드벤처, 쏠비치 등 이용 가능한데 자세한건 사진 참고 부탁드립니다! 
+등기 가격 포함 금액입니다 연락 주세요 :)</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/291195701</t>
+  </si>
+  <si>
+    <t>호텔 아프리카 1~4 박희정 만화</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/291195701_{cnt}_1727338941_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>깨끗한데 3권만 겉표지가 약간 바랬습니다
+속지는 깨끗하고 컬러페이지도 다 있습니다
+중고특성상 교환 환불 반품 안됩니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/277042360</t>
+  </si>
+  <si>
+    <t>시크릿호텔에사신이산다(1-11완)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/277042360_{cnt}_1719979331_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>(중상)(작은책)
+※★ 중고책이므로 외관상 확인치 못한 이상(얼룩or낙장)이 있을 수 있습니다 ★※
+* 변색/얼룩/움감
+“나에 대해서 쓰는 건 어떤가?” 엄마를 잃은 어린 주혁에게 마을 어른들은 추악하기만 했다. 남은 거라곤 타고난 힘과 천재적인 능력뿐. 가족이 된 친구마저 잃은 주혁은 아픔을 딛고 세기의 작가로 성장하게 되는데… 스스로 운명을 개척해야 하는 한주혁. 죽은 친구의 마지막 소원은 사신 하데스의 제자가 되는 것!! 천재적인 작가이자 사신의 제자 한주혁. 추악한 그들에게 어떤 징벌을 내릴 것인가?
+상태설명 : 중고책(대여점용)
+중고책(대여점용)으로 외관상 확인치못한 이상(얼룩,낙장,낙서,호치케스,밴딩자국,대여점용스티커,기타중고감)이 있을수 있습니다.
+위의이유로 교환,반품,환불은 불가합니다.
+모든상품은 세트판매금액 입니다.
+* 코믹스/순정만화,판타지/신무협소설,로맨스소설,일반소설등  다양한 쟝르의 중고도서를 판매합니다.
+* 기본 배송비 3,500원이며,한박스 (판타지40권,만화50권이상 ) 초과시 나머지박스는 착불로 배송비추가됩니다. 
+묶음배송 가능합니다.
+*저희는 자체택배(로젠택배)를 이용합니다.
+* 우체국택배이용시 추가요금있습니다.
+* 제주/도서지역 추가요금 있습니다.
+*중고서적이므로 교환/반품/환불은 불가합니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/280450789</t>
+  </si>
+  <si>
+    <t>잠실 방이 짬모텔 숙박 (7/20~7/21) 주차가능</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/280450789_{cnt}_1721443678_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>오늘 개인사정으로 못 가게 되어 잠실 방이 짬모텔 숙박 양도합니다
+먹자골목 주변이고 주차가 어려운데 여기는 입실이 18:00부터여서 주차 가능합니다 연락주세요!</t>
+  </si>
+  <si>
+    <t>연수구 옥련2동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/276774342</t>
+  </si>
+  <si>
+    <t>휴가철  제주신라호텔  1박2일  숙식권 양도 합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/276774342_{cnt}_1720275931_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>제주신라호텔
+1박2일  2인 숙식권 양도 합니다
+2인 조식 포함
+성수기때는 75만
+준 성수기라   가치는 조금밑이라 
+보시면 될꺼 같아요
+휴가철 이라  이번달 17 일까지 
+17일 전에 예약하고 호텔 써비스
+이용하시고
+아침에 두분 조식권 으로 식사하시고 오전중에 체크 아웃
+하시면 됩니다
+카톡 아이디 ******</t>
+  </si>
+  <si>
+    <t>부산진구 연지동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/283554139</t>
+  </si>
+  <si>
+    <t>수성호텔 11만5천원짜리 4만원 수영장 사우나</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/283554139_{cnt}_1723086968_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>성수기 다 가능해요
+유효기간 따로 없어요</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/258362951</t>
+  </si>
+  <si>
+    <t>아이초이스 파르나스 서울, 인터컨티넨탈 호텔</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/258362951_{cnt}_1711697685_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>모두 다 3월까지입니다.
+케이크 교환권은 3만원
+나머지는 각 장 1만원씩
+객실 할인권은 공시가 기준 아닌 당일 최적가 기준이라 나름 유용합니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/278491396</t>
+  </si>
+  <si>
+    <t>파르나스 호텔 주말 연박 2박3일 1베드룸 스위트 클럽 라운지 포함</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/278491396_{cnt}_1720606409_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>많이 이용하시는 주니어 스위트 아니라
+더 상급 객실인 1베드룸 스위트 입니다.
+업그레이드 혜택으로도 이용이 어려운 객실입니다.
+2박 3일 금토일 로 여유 확보합니다.
+요즘 대부분 호텔 11시 체크아웃은 조식 먹고 짐 챙기면 끝입니다… 2박3일 있으면 하루는 아침부터 자기 직전까지 호텔 객실에만 종일 머무는 특권이 생깁니다.
+2박3일 내내 라운지 이용 보장이라 비싼 물가 추가 식사 비용 걱정이 없거니와 배달 음식 눈치 보며 챙겨 올 필요도 없고 장마철에 나갈 이유도 없습니다.
+어차피 호텔에서 전철역, 코엑스, 현대백화점 모두 연결되어 비, 더위 겪을 일 없지만 비싼 성수기 호텔인 만큼 라운지만 이용하시면서 종일 호텔 이용하시길 권해 드립니다.
+2박 3일 원 베드룸 스위트 2인
+2박 3일 전 일정 클럽 라운지 이용 
+(조식 및 애프터눈 티 세트, 디너 타임 해피 아워 포함)
+마지막 날 4시 체크아웃 가능</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/290308515</t>
+  </si>
+  <si>
+    <t>대천 데이원스테이호텔(오늘) 숙박</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290308515_{cnt}_1726881877_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>오늘 당일 대천 데이원스테이호텔 1박 2일 숙박 양도해요</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/290337573</t>
+  </si>
+  <si>
+    <t>제네시스 프리빌리지 판매합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290337573_{cnt}_1726894617_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>g80 프리빌리지 판매 합니다
+https://www.genesis.com/kr/ko/members/genesis-membership/privilege/gv80.html?anchorID=privilege_tab_01
+호텔 종류 및 자세한 내용은 홈페이지 확인 가능
+당근, 카페 등 현 시세에 맞춰올린 금액 입니다
+연락처 및 신분 확인 후 선입 해주셔야 합니다.</t>
+  </si>
+  <si>
+    <t>성산구 반송동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/269399715</t>
+  </si>
+  <si>
+    <t>워커힐호텔 바우처 10장</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/269399715_{cnt}_1717498612_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>워커힐 호텔 10만원 권 바우처 10장 팝니다. 
+수도권 직거래 입니다. 
+유효기간은 바우처에 쓰여 있다시피  2024년 12월 31일 까지 입니다.
+일괄 입니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/281527013</t>
+  </si>
+  <si>
+    <t>한화 호텔앤리조트 상품권 7만원권 9장(개별구매 가능)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/281527013_{cnt}_1725074403_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>[한화 호텔앤리조트 상품권] 7만원권 9장
+- 발행일: 2024년 7월 25일
+- 유효기간: 발행일로부터 5년
+- 정가: 장당 70,000
+- 개별구매 장당: 65,000 판매(최소단위 5장)
+유효기간 5년이라엄청 여유있어요!!
+저희 가족은 사용할 일이 많이 없어 판매해요
+가격네고 문의는 받지 않을게요
+직거래: 하안주공 4단지
+택배거래: 선입금해주시면 보내드려요(택배비별도)</t>
+  </si>
+  <si>
+    <t>광명시 하안4동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/292444058</t>
+  </si>
+  <si>
+    <t>(호텔양도) Ac 호텔 강남 크리스마스 12.24~25</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/292444058_{cnt}_1728019050_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>예약일 - 24.12.24~25
+금액 - 30만원
+혜택 - 가능하다면 (14시 레이트체크아웃 + 여부에따라 방 업그레이드)
+직접 체크인후 키 전달하는 방식입니다.
+현재 최저가 - 아고다~공홈 36만원 (세금포함)
+날짜 임박해오면 더 비싸니까~ 언넝 예약하세요!</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/278562046</t>
+  </si>
+  <si>
+    <t>워커힐 크레딧 상품권 100만원 (직거래만 가능)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/278562046_{cnt}_1722570695_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>사용기한 25년 6월입니다. 
+사용처 및 세부정보는 사진에 기재되어 있습니다. 
+** 상품권 특성 상 직거래+계좌송금만 가능합니다. **
+에누리 문의, 택배거래 문의 주지 마세요. 
+구매의사 없는 채팅 사양합니다.</t>
+  </si>
+  <si>
+    <t>영등포구 문래동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/208877607</t>
+  </si>
+  <si>
+    <t>[숙소] 스타즈 호텔 독산 (12/25~12/26) 스탠다드 트윈</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/208877607_{cnt}_1671785566_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>스타즈 호텔 독산 스탠다드 트윈 크리스마스 12/25~12/26
+12월25일~12월26일 크리스마스
+입실 15:00
+퇴실 12:00
+바로 계좌 문의시 110,000
+양도합니다 연락주세요</t>
+  </si>
+  <si>
+    <t>시흥시 목감동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/277058879</t>
+  </si>
+  <si>
+    <t>오사카 뉴 한큐 호텔 양도 (7월11일 ~ 12일)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/277058879_{cnt}_1719993343_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>오사카 뉴 한큐 호텔 트윈베드룸 양도합니다!
+원래 가격은 12만원 입니다! 6만원 반값 양도합니다ㅠㅠㅠ먼저 연락주시는분에게 양도하겠습니다~!
+예약사이트에서 직접 이름변경 양도 해준다고 확답 받아놓은 상태입니다~!</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/288734578</t>
+  </si>
+  <si>
+    <t>이비스 스타일 앰배서더 인천 에어포트 9.16-18</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/288734578_{cnt}_1726203022_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>이비스 스타일 앰배서더 인천 에어포트  슈페리어 더블
+9월 16일-18일 2박3일 5만원 
+27만원에 예약했는데 개인 일정 변경으로 방문이 불가하나,
+숙박앱에서 취소가 안되어 절반 이하로 판매합니다.
+숙소에는 양도 가능 확인했습니다.
+구매시 숙소에 이름 변경 및 예약 페이지 전달  드립니다.
+당일 1박 14만원  보다 저렴하게 2박3일을  구매하세요.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/291221332</t>
+  </si>
+  <si>
+    <t>11/1-11/5 하바나 나트랑 호텔 양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/291221332_{cnt}_1727348449_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>호텔 이름: 프리미어 하바나 나트랑 호텔
+룸 타입: 디럭스 씨 뷰 퀸룸
+날짜: 11/1-11/5 4박
+양도 가격: 160,000원
+인원: 2인
+4명 가족 여행이였는데 한 분이 갑자게 편찮으셔 두 분이 못가게 되어 방 한개 양도합니다!
+나트랑 시내랑도 가깝고 호텔방에서 바다 보이는 룸 입니다!!</t>
+  </si>
+  <si>
+    <t>광주시 광남동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/233701188</t>
+  </si>
+  <si>
+    <t>미개봉 웨스 앤더슨 컬렉션 책 그랜드 부다페스트 호텔 프렌치 디스패치</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/233701188_{cnt}_1712800235_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>웨스 앤더슨 컬렉션 책 
+미개봉 상품으로 보내드립니다.   (1권 남음)
+📢 확실히 구매하실 분만 톡 보내주세요‼️
+📦 우체국택배</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/251583592</t>
+  </si>
+  <si>
+    <t>메리어트 10만 포인트</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/251583592_{cnt}_1706676144_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>26년까지 사용 가능한 따끈 따끈한 메리어트 포인트 10만 점 판매합니다.
+18만 포인트 있지만 1년 양도 한도가 10만 포인트라 나머지는 내년에 판매하려고 합니다.
+구매시 필요사항 
+1. 메리어트 멤버쉽 가입3개월이상 2.
+본보이 메리어트 회원번호 3. 가입 이메일 주소 4. 영문성명
+연락 주세요!</t>
+  </si>
+  <si>
+    <t>유성구 온천1동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/273958419</t>
+  </si>
+  <si>
+    <t>포시즌스 호텔 레스토랑 금액권 및 식사권, 콜키지 이용권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/273958419_{cnt}_1725833016_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>포시즌스 호텔 레스토랑 금액권 및 식사권, 콜키지 이용권 양도합니다. 사용기간은 약 1년 남아 넉넉하게 사용가능합니다.
+구매하시기 전 첨부된 사진의 유의사항 읽어보시고 구매해주세요~
+1. 레스토랑 30만원권 : (판매완료)
+2. 레스토랑 10만원권 : (판매완료)
+3. 레스토랑 5만원권 : 10%할인-4.5만원
+4. 레스토랑 5만원권 : 10%할인-4.5만원
+5. 더마켓키친 식사권 : 3만원 할인-15만원
+6. 와인 콜키지 무료이용권 : 10만원 할인-5만원
+2~6 다 같이 구매하시면 추가 2만원 더 할인해드립니다.
+*이번 24년 추석에는 특별사용가능합니다.
+우편배송 혹은 광화문, 경기도 양평 직거래합니다.</t>
+  </si>
+  <si>
+    <t>종로구 사직동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/289737310</t>
+  </si>
+  <si>
+    <t>여기어때 호텔 양도합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/289737310_{cnt}_1726530324_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>80퍼로 판매중이니 대리인 구합니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/240696989</t>
+  </si>
+  <si>
+    <t>핼러윈 팝업북 나이트메어 호텔</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/240696989_{cnt}_1727263320_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>사용감 거의 없이 보관만했어요.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/252088508</t>
+  </si>
+  <si>
+    <t>플래티넘 외식통합이용권(12만원)(롯데호텔 라세느포함)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/252088508_{cnt}_1726372926_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>그랜드 앰배서더 서울 더 킹스
+노보텔 앰배서더 서울 동대문 호텔 푸드 익스체인지
+더플라자 세븐스퀘어
+롯데호텔 부산 라세느
+롯데호텔 소공 라세느
+롯데호텔월드 잠실 라세느
+쉐라톤 그랜드 인천 호텔 피스트
+소노캄 고양 셰프스 키친
+소노캄 여수 셰프스 키친
+쏠비치 삼척 셰프스 키친
+스위스 그랜드 서울 호텔 뷔페 레스토랑
+임피리얼 팰리스 서울 호텔 패밀리아
+코트야드 메리어트 서울 타임스퀘어 모모카페
+콘래드호텔 제스트
+파크 하얏트 서울 코너스톤
+패션5
+사정이 있어서 이용못하네요ㅜ
+5만원권2장1만원2장 있어요
+모두 12만원을 10만원드립니다!!
+하남스파필드.청량리.서울잠실가능요직거래</t>
+  </si>
+  <si>
+    <t>양평군 양평읍</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/285752318</t>
+  </si>
+  <si>
+    <t>웨스틴 조선 서울 주니어 스위트 업그레이드 (클럽 라운지 PKG)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/285752318_{cnt}_1724331390_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>9/3까지만 판매합니다.
+원가 2,420,000원 입니다.
+구매하시면 투숙객정보 입력(변경) 해 드려요
+투숙객정보변경은 1회만 가능하기 때문에 
+안심하고 구매하셔도 됩니다⭐️
+클럽 라운지 조식 및 칵테일아워 2인혜택
+F&amp;B 이용권 3만원 제공
+식음업장 10% 할인
+수영장.피트니스.사우나 투숙 인원 모두 제공
+매직 플로우 전시 통합이용권 선착순 110객실 제공</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/290610893</t>
+  </si>
+  <si>
+    <t>항공 호텔 고객서비스실무</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290610893_{cnt}_1727015519_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>면접 전에 알고 가면 좋은 내용들이 많습니다.
+정옥경 저 한올 출판사</t>
+  </si>
+  <si>
+    <t>교양/인문</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/279670141</t>
+  </si>
+  <si>
+    <t>경주 독채풀빌라 원가 210,000-&gt;150,000 날짜 7/17~7/1</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/279670141_{cnt}_1721032880_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>개인사정이 생겨서 판매합니다 이번주 수요일~목요일이고 판매안되면 지인들에게그냥 주려고합니다 연락빨리주세요~</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/284807679</t>
+  </si>
+  <si>
+    <t>워커힐 상품권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/284807679_{cnt}_1724038343_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>워커힐 호텔 상품권 50만원
+(10만원권 5장)
+직거래는 망월사역, 동두천 가능합니다
+장당 90000원</t>
+  </si>
+  <si>
+    <t>의정부시 호원1동</t>
+  </si>
+  <si>
+    <t>경포 스카이베이호텔 숙박권(10/12,주말)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290969466_{cnt}_1727871117_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>10월12일 주말 숙박권
+executive twin 더블,싱글침대 2개
+소인포함 최대4인까지 가능합니다.
+오션뷰확정, 고층뷰가능합니다.
+10/08(화)까지 구매의사 결정요청합니다.
+9977 1729
+언제든 문의주셔요
+감사합니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/276686546</t>
+  </si>
+  <si>
+    <t>싱가폴 숙소 원패러호텔 양도합니다. 9월10일~9월12일 2박</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/276686546_{cnt}_1719836748_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>9월 10일 화요일 부터 12일 목요일 2박
+체크인 3시부터 가능
+싱가포르 원패러호텔 
+민트룸 
+성인2명
+2박에 58만원에 예약 했는데 사정이 생겨 판매합니다. 쿨거래시 약간의 네고 해드리겠습니다.</t>
+  </si>
+  <si>
+    <t>부산진구 부전제2동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/282226092</t>
+  </si>
+  <si>
+    <t>야놀자 80%</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/282226092_{cnt}_1722335744_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>✔️본인인증 상점✔️
+3만원~10만원미만 가능
+실제금액에서 ❗️80프로만❗️ 입금하면 됩니다
+입금확인후 제가 예약해드립니다 
+예약완료후 예약정보 전달드립니다
+준비된 한도 소진시 판매종료
+💡문자 &amp; 톡 보낼때
+- 숙소이름 or 링크 
+-예약날짜 
+-객실타입 
+-가격 
+-인원 
+-예약자성함 
+-전화번호 
+-도보차량이용유무
+🍯예약페이지 들어가서 캡쳐로 보내주시면 더더 간편합니다
+🚫예약완료시 취소절대불가🚫
+숙소자체에서 무료취소 되있어도 제가 대리주문해드린거라 취소가 절대 불가하니 신중히 주문부탁드립니다
+취소가 불가피할시 타인에서 양도하는 방법으로 해결하셔야합니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/290395790</t>
+  </si>
+  <si>
+    <t>아고다호텔 40% 할인예약해드립니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290395790_{cnt}_1726915091_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>아고다호텔 40% 할인예약해드립니다
+국내호텔 / 해외호텔 / 풀빌라 / ALL 
+아고다 전세계 모든호텔 최대 40% 할인된 가격으로 예약해드립니다.
+선결제예약후 입금해주시면됩니다.
+(예약문의시)
+호텔명 :
+일정 :
+인원 :
+객실타입 :
+예약자성함(한글/영문) :
+연락처 :
+이메일주소 :
+예약확정서는 이메일로 보내드립니다.
+최종결제금은 시간대환율로 다소 차이가날수있습니다 차이가 많이나는경우 꼭말씀해주세요.</t>
+  </si>
+  <si>
+    <t>서초구 서초1동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/291945534</t>
+  </si>
+  <si>
+    <t>반얀트리클럽 앤 스파 서울 호텔 10. 19일 숙박 - 2인 조식포함</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/291945534_{cnt}_1727998908_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>조식 뷔페 2인
+피트니스 수영
+반얀룸
+성인 2인 기준
+10월 19일 토 3시 입실</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/277249958</t>
+  </si>
+  <si>
+    <t>보코 강남 IHG 호텔 숙박권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/277249958_{cnt}_1720053631_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>보코 강남 IHG 호텔, 디럭스룸 숙박권 팝니다
+2024년 11/30일까지 사용가능하고
+*9/14-17, 10/3-6 빼고는 예약 가능해요</t>
+  </si>
+  <si>
+    <t>부천시 원종2동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/283031598</t>
+  </si>
+  <si>
+    <t>야놀진83%</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/283031598_{cnt}_1722780725_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/278665480</t>
+  </si>
+  <si>
+    <t>토스후불결제 88프로팝니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/278665480_{cnt}_1720530706_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>토스후불결제 한도 30입니다
+88프로로 판매하고 25~30만 사이 결제 하실분들
+연락주세요~~~ 최대 30만 맞추시면 좋습니다
+비행기,호텔 모두 다 예약가능합니다</t>
+  </si>
+  <si>
+    <t>문화/도서</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/234208202</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/234208202_{cnt}_1724635067_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>🧡🩶🧡🩶🧡🩶🧡🩶</t>
+  </si>
+  <si>
+    <t>서북구 부성1동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/288666288</t>
+  </si>
+  <si>
+    <t>소노호텔 수영장 입장권(로블바우처)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/288666288_{cnt}_1726256407_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>로블카드 바우처입니다.
+6장 동시 판매합니다.</t>
+  </si>
+  <si>
+    <t>동구 안심3동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/231121256</t>
+  </si>
+  <si>
+    <t>조선팰리스, 파크하얏트 호텔 예약</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/231121256_{cnt}_1728003038_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>조선팰리스 
+파크하얏트 
+*주중, 주말 예약 가능
+호텔 예약 저렴하게 해드립니다!
+호텔 예약 사이트 보다 15~20%는 저렴하게 가능합니다 
+- 직접가서 제가 결제
+- 숙박일수 채우기 위함
+- 레이트체크아웃 2PM 
+날짜 알려주시면 예약 확정 + 현장 결제
+궁금하신 부분있으시면 연락부탁드립니다:)</t>
+  </si>
+  <si>
+    <t>분당구 판교동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/221774720</t>
+  </si>
+  <si>
+    <t>수성호텔 루프탑 vip 수영장+사우나 판매</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/221774720_{cnt}_1726991690_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>루프탑+사우나 포함 vip이며
+수량 많습니다
+유효기간 없습니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/234253937</t>
+  </si>
+  <si>
+    <t>제주 유어스 호텔 27-29일 2박</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/234253937_{cnt}_1692948504_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>제주 서귀포 유어스 호텔
+8/27-29 급 양도 내놓아요
+급하게 휴가를 쓸 수 없게 되어서ㅜㅜ
+지금 예약하시면 아고다 기준 144,500원인데 
+저는 12만원에 예약해서
+싸게 팝니자ㅜㅜ
+기프치콘이라 상품권으로도 가능해요</t>
+  </si>
+  <si>
+    <t>남구 학익1동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/292257838</t>
+  </si>
+  <si>
+    <t>해즈빈 호텔 발렌티노 굿즈 매입 구매합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/292257838_{cnt}_1727923889_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>웬만하면 다 삽미다.....일단 저에게 보어주세요</t>
+  </si>
+  <si>
+    <t>10월 4일5일 주중 한화리조트 여수벨메르호텔 양도합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/288583953_{cnt}_1728022590_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>한화리조트 여수 벨메르호텔 미취사
+침구추가 2채까지, 1채 30.000원
+슈페리어스위트 침실2.화장실2.거실 4~6인
+* 10월 월요일~목요일 (공휴일제외) 
+슈페리어 스위트 200.000원
+10월 4일 금요일
+슈페리어스위트 오션뷰  480.000원
+프리미어스위트 오션뷰 600.000원
+(침실2. 욕실3. 거실. 테라스) 4~6인
+5일 토요일
+슈페리어 스위트오션뷰  480.000원
+프리미어스위트 오션뷰 600.000원
+(침실2. 욕실3. 거실. 테라스) 4~6인 
+예약 후 취소.환불 되지않습니다
+8953.2319</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/290944329</t>
+  </si>
+  <si>
+    <t>파라다이스호텔부산</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290944329_{cnt}_1727189074_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>부산파라다이스호텔
+10월3일~6일
+숙박권판매합니다
+사정상 못가게되었어요
+디럭스 더블룸 테라스 오션뷰
+조식 씨메르 포함입니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/246134282</t>
+  </si>
+  <si>
+    <t>콘래드서울 뷔페 식사권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/246134282_{cnt}_1726823403_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>전화해서 물어보니 SC바우처 165,000원 권이라고 합니다. 
+장당 가격입니다 1장 남았습니다. 
+1월 2일부터 사용가능합니다.
+유효기간 발행일로부터 1년이요 
+발행일이 2024년 1월 2일임
+런치 디너 주말주중 전부사용가능입니다.
+금요일 랍스터뷔페, 크리스마스 발렌타인데이 어린이날등 특별프로모션기간은 사용불가예요</t>
+  </si>
+  <si>
+    <t>서초구 반포1동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/257383321</t>
+  </si>
+  <si>
+    <t>오사카 일쿠오레난바호텔 8.31-9.02양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/257383321_{cnt}_1717745879_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>일쿠오레 난바 호텔 (Hotel IL Cuore Namba)
+2인 8.31-9.02 토일월 판매합니다 
+날짜변경 안되요
+휴가일정이 변경되었는데 호텔을 환불불가 상품으로 예약하여 판매하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>달서구 진천동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/278885763</t>
+  </si>
+  <si>
+    <t>드래곤 시티 호텔, 노보텔 용산, 머큐어 용산 레스토랑</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/278885763_{cnt}_1726710483_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>5만원권 각 4만원씩, 4장 일괄은 15만원
+The 26 또는 알라메종 와인 앤 다인 점심 3코스 1인 식사권 각 5만원씩,  2장 일괄은 95,000원
+중식당 페이, 일식당 운카이 코스 식사권
+각 7만원씩, 2장 일괄은 135,000원
+50% 할인권은 1장이며 6만원
+각 이용권 사용 조건은 각 사진 참고 바랍니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/263429343</t>
+  </si>
+  <si>
+    <t>센트럴 호텔</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/263429343_{cnt}_1715689164_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>못가게되어 팔아요 가격제안주세요ㅠ</t>
+  </si>
+  <si>
+    <t>마산합포구 월영동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/270430037</t>
+  </si>
+  <si>
+    <t>제네시스 시그니엘 호텔 디럭스 스위트 숙박권 판매합니다!</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/270430037_{cnt}_1718063880_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>시그니엘호텔 디럭스스위트룸 숙박권팝니다.
+서울/부산 어느 곳이나 선택해서 사용가능합니다.
+사용기간 25년 4월 30일까지이고 조식2인포함입니다
+여름성수기때 130만원넘는걸로 알고있습니다
+3월기준으로 디럭스스위트룸 110만원정도하네요.
+*시그니엘 호텔 서울의 경우 혜택
+●시그니엘 프리미어 시티뷰(전망욕조) 1박
+●스테이 조식 2인 포함
+●살롱 드 시그니엘 2인 무료 이용
+●f&amp;b 크레딧 10만원 바우처 1매 제공
+●웰컴 티 및 과일 커티시 제공
+●프레싱(셔츠 2벌/일) 및 슈폴리싱 서비스
+●실내 수영장 및 피트니스 센터 무료 이용
+●사우나 2인 무료 이용
+*시그니엘 호텔 부산의 경우 혜택
+●디럭스 스위트 미포하버뷰 1박
+●더 뷰 조식 뷔페 2인 포함
+●살롱 드 시그니엘 2인 무료 이용
+●웰컴 티 및 과일 커티시 제공
+●프레싱(셔츠 2벌/일) 및 슈폴리싱 서비스
+●실내 수영장 및 피트니스 센터 무료 이용
+●사우나 2인 무료 이용</t>
+  </si>
+  <si>
+    <t>중구 보수동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/284102524</t>
+  </si>
+  <si>
+    <t>오사카 숙소 양도합니다. 9월 9일 ~ 9월 12일입니다.</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/284102524_{cnt}_1723622644_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>9월 9일 ~ 9월 12일 3박4일 일본 오사카 숙소 양도합니다. 2인으로 예약하였습니다.
+이번에 3박4일로 일본에 놀러가려고 했는데 못 가게 되어서 숙소 싸게 양도합니다.
+지금 예약하면 603,168원이지만 396,957원에 예약했습니다.
+이미 호텔 측에 문의해 예약자 성함을 변경 할 수 있다고 확답 받았습니다.
+150,000원에 양도합니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/250106207</t>
+  </si>
+  <si>
+    <t>[불꽃축제, 조식포함] 몬드리안 호텔 10/5(토) 1박 양도~</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/250106207_{cnt}_1728024320_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>※ 네고 문의 사절~
+※ 전일까지 양도 가능~
+당일 양도 불가능~
+[급양도] 몬드리안 호텔(이태원) 피나클 킹룸 10/5(토) 1박 양도 합니다.
+조식 2인 포함~
+가능시 오후 2시 체크아웃~
+가능시 웰컴어메니티(룸으로 서비스)~
+사우나 무료, 실내 수영장, 휘트니스 이용가능~
+37만원(펑크방지금 조금 있어요)
+(다른 날짜는 문의주세요)</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/277539345</t>
+  </si>
+  <si>
+    <t>라마다제주시티호텔 1인 숙박권 마지막가격 (8만원-&gt;3.5만원)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/277539345_{cnt}_1720589899_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>라마다제주시티호텔 1인 1박 숙박권
+제주공항에서 15분거리
+스탠다드 객실, 조식포함x
+극성수기 전인 ~7월18일(목)까지 예약가능 (주말제외)
+당곡역 직거래 또는 우체국 등기 2500원
+010-5955-삼일오구
+문자주세요
+※ 자세한 위치나 내용은 홈페이지 참조
+http://ramadajejucity.com/m/</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/292344187</t>
+  </si>
+  <si>
+    <t>10/25~28 일본 후쿠오카 하카타역 근처 숙소 호텔 양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/292344187_{cnt}_1727955545_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>10/25(금)부터 10/28(월)까지 3박 4일
+후쿠오카 하카타역 근처 '도큐스테이 하카타' 2인 객실 1개 양도합니다
+객실: 모더레이트 더블룸 (금연 객실) (퀸침대 1개) (조식 포함 안되어 있음)
+위치: 1 Chome-11-11, 하카타 구, 812-0016 후쿠오카, 후쿠오카 현, 일본
+(후쿠오카 하카타역에서 도보 7분 거리)
+지인 사정으로 인해 여행을 취소하게 되었는데
+환불이 불가능하여 급하게 양도합니다...ㅠ
+58만원에 예약했는데 40만원에 양도합니다!
+거래 직후에 예약확정서 숙박자 변경해드립니다!!
+입금후에는 개인사유로인한 변심환불 어렵습니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/234325645</t>
+  </si>
+  <si>
+    <t>수성호텔 수영장 루프탑</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/234325645_{cnt}_1693018749_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>장당가격
+수성호텔 온천이랑 수영장, 루프탑 다 이용되욪
+추석선물하기에도 좋구 사진찍고 인싸 되어요^^</t>
+  </si>
+  <si>
+    <t>달서구 감삼동</t>
+  </si>
+  <si>
+    <t>10/12체크인 1박 강릉 스카이베이 경포호텔 바다전망고층 숙박권 양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/222157998_{cnt}_1727909276_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/220435201</t>
+  </si>
+  <si>
+    <t>호텔 타셀의 돼지들 오은 시집 민음의시 민음사 책 도서 추천</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/220435201_{cnt}_1683232454_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>오은 시집 &lt;호텔 타셀의 돼지들&gt; 판매합니다.
+밑줄, 내지 접힘 등 없어요. :-)
+일반택배 +4,000원
+CU끼리 +2,000원</t>
+  </si>
+  <si>
+    <t>광산구 도산동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/290002260</t>
+  </si>
+  <si>
+    <t>오키나와 나하 숙박(호텔) 팝니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290002260_{cnt}_1726702177_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>1박이구용
+금-토입니다 ㅠ 10월11-12일입니다
+12만원주고 예약했는데 9만원에 팝니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/104432490</t>
+  </si>
+  <si>
+    <t>싱가포르 원패러 호텔 양도합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/104432490_{cnt}_1561821581_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>싱가폴 원패러호텔 양도합니다.
+취소불가 상품이라ㅠㅠ
+8/20-24
+총 4박입니다! 94만원에 결제했고요 90만원에 양도합니다 쿨거시 에눌가능해요~
+조식은 포함이구요 어반덴 패밀리 싱글베드2개 소파베드1개입니다
+패러파크역에서 매우 가깝구요, 싱가폴 쇼핑으로 빠질수 없는 무스타파와도 매우 가깝습니다.
+일리커피 캡슐, TWG티, 미니바(음료, 과자등) 모두 무료이고 가성비 좋은 호텔로 요즘 핫한 호텔입니다.
+연락부탁드립니다^^</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/282964543</t>
+  </si>
+  <si>
+    <t>야놀83%</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/282964543_{cnt}_1722755602_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/291782921_{cnt}_1728006139_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>5일 불꽃 축제 당일 페어몬트 호텔
+전망 불확실이라 저렴하게 양도합니다.
+2베드룸 프리미어 스위트 : 프리미어 스위트룸은 침실 2개, 욕실 2개, 거실 및 소파와 3인용 식탁으로 구성되어 있습니다. 매일 아침 식사, 애프터눈 티, 저녁 칵테일을 제공하는 골드 라운지를 이용할 수 있습니다. 130만원
+2베드룸 이그제큐티브 스위트: 이그제큐티브 스위트룸은 침실 2개, 넉넉한 크기의 욕실, 작업용 책상, 컴퓨터, 편안한 소파, 라운지 의자가 있는 거실로 구성되어 있습니다. 매일 아침 식사, 애프터눈 티, 저녁 칵테일을 제공하는 골드 라운지를 이용할 수 있습니다. 150만원
+1베드룸 시그니처 스위트: 라운지 포함 90만원
+페어몬트 디럭스 룸 60만원 (고층)
+페어몬트 룸 55만원</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/287574030</t>
+  </si>
+  <si>
+    <t>국내or해외 호텔 예약진행합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/287574030_{cnt}_1725328025_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>국내or해외 호텔 예약진행합니다
+국내 호텔
+롯데 조선 신라 반얀트리 쏠비치
+스카이베이 세인트존스 썬크루즈 등등 
+국내 대부분의 호텔숙박시설 가능
+일반예약가에서 30~40%까지 다운된금액으로
+예약진행해드려 양도 해드립니다.
+구매자분 인적사항으로 예약도와드리며 
+금액비교만 해보셔도됩니다 
+*투숙일기준 10일이상 일정이 남아있는경우
+가능하시니 이점 참고하셔서 문의주세요</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/282256365</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/282256365_{cnt}_1722346160_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/191041018</t>
+  </si>
+  <si>
+    <t>2024 롯데호텔 라세느 뷔페 식사권 - 판매완료</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/191041018_{cnt}_1727566153_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>- 판매완료
+롯데호텔 라세느 뷔페 2인 식사권/초과요금 없습니다
+1장 2인식사 가능, 주말, 공휴일 추가비용 없습니다
+서울점  평일/주말, 점심/저녁 사용합니다.
+직접 예약하시고, 식사하는동안 제가 가서 결제해드립니다,</t>
+  </si>
+  <si>
+    <t>서대문구 남가좌제1동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/292275702</t>
+  </si>
+  <si>
+    <t>광안리1호텔 1박 양도합니다.</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/292275702_{cnt}_1728003937_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>광안리 호텔1
+10.6(일)-10.7(월) 1박
+캡슐 럭셔리 오션 2층 터치(여성 1인 전용)
+양도합니다.
+59,335 -&gt; 40,000
+관심 있으신 분 연락 주세요.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/288431146</t>
+  </si>
+  <si>
+    <t>미스테리어스호텔 체크머리띠</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/288431146_{cnt}_1725783089_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>안어울려서팝니당 사실분만연락주세용</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/292429824</t>
+  </si>
+  <si>
+    <t>강릉관광호텔 10월 6일 ~ 7일</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/292429824_{cnt}_1728013058_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>강릉관광호텔 10월 6일~7일 
+원래 7만이상인데 급처해요!!</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/290664965</t>
+  </si>
+  <si>
+    <t>후쿠오카 숙소, 호텔 양도받습니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290664965_{cnt}_1727064391_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>여행 취소되신분들이나 혹은 다른 숙소가 필요해지신분들 찾습니다
+9월 26-29일 후쿠오카 숙소 찾아요</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/223787878</t>
+  </si>
+  <si>
+    <t>세부5성급 호텔 양도(2박)</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/223787878_{cnt}_1684298721_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>공항 결항으로 못가게 되어서 호텔 양도합니다 !!ㅜㅜㅜ
+시간은 6개월 이내 사용가능해서 날짜, 가격 맞춰드릴 수 있습니다 ! 연락주세요 :)</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/291438459</t>
+  </si>
+  <si>
+    <t>20만) 10.1-10.3 나트랑 시그니처호텔 2박 스위트룸 조식포함</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/291438459_{cnt}_1727485787_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>시그니처호텔 2박 스위트룸 조식포함 The Signature Hotel Nha Trang  양도합니다. 일반룸이 아니라 스위트룸입니다.
+40만원 결제했으며 반값 20만원에 2박 양도합니다.  빈펄리조트랑 이중결제되어 둘중에 하나 양도합니다. 신상 5성 호텔이에요. 2024년 8월 완공
+투숙인원은 2명이며 예약자명 변경가능합니다.
+아고다 이중 결제되어 양도합니다. 취소가 안되네요 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>남양주시 다산2동</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/291141861</t>
+  </si>
+  <si>
+    <t>(긴급) 일본 오사카 숙소 호텔 아비타레 난바 웨스트 3박4일 양도</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/291141861_{cnt}_1727324836_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>성인 3명까지 들어갈 수 있는 객실이고
+10월 18일부터 10월 21일까지 3박4일입니다.
+불가피한 사정으로 여행을 취소하게 되어서 
+호텔 예약을 취소해야하는 상황인데
+아고다에서는 환불이 불가능하다고해서 
+급하게 양도합니다 ㅜㅜ 
+쿨거시 38만원까지 네고도 가능합니다!!
+객실: 디럭스 트윈룸 (금연 객실) (더블베드 2개)
+위치: 2 Chome-2-44 Saiwaicho, Naniwa Ward, Osaka, 556-0021 일본
+(오사카 사쿠라가와역에서 도보 3분 거리,
+도톤보리까지 도보 15분 거리)
+근거리에 사쿠라가와역 뿐만 아니라 로손과 세븐일레븐 편의점이 자리하고 있어 편의성은 나쁘지 않은 호텔입니다.
+거래시 예약자명 변경후 양도해드립니다.</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/264188833</t>
+  </si>
+  <si>
+    <t>포시즌스호텔 상품권 70만원 상당 &gt; 41만원 급처</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/264188833_{cnt}_1716808074_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>상품구성 
+-레스토랑 상품권 30만원
+-레스토랑 상품권 10만원
+-더마켓키친 1인 뷔페이용권 1장 (디너)
+-콜키지 이용권 15만원 상당
+6/30까지 이용가능합니다
+쿨거래 네고 만원 해드려요</t>
+  </si>
+  <si>
+    <t>동작구 노량진제1동</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/290230535_{cnt}_1728012509_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>*예약날짜 변경 불가능하나 얼리 체크아웃만 가능합니다
+10/20-10/24
+일본 도쿄 호텔 세일즈 아사쿠사 숙소 양도합니다
+4박5일이며 3인실 2개 원가는 약 170만원이나
+급하게 여행을 못가게 되어 할인해 올려봅니다
+3인실 2개 동시에 하실경우
+90만원, 3인실 한개만 하실경우50만원입니다
+거래 직후에 예약확정서 숙박자 변경해드립니다
+번톡주시면 세부내역 보내드리겠습니다!
+예약을 제명의가 아닌 친구가 했고 친구 통해서 연락을 주고 받아야해서 중간에 시간이 조금 걸릴수있는점은 양해부탁드립니다..🥹
+어느정도선에서 네고도 받으니 양도의향 있으신분들만 번톡 편하게 부탁드립니다!
+입금후에는 개인사유로인한 변심환불 어려우니 신중히 구매 부탁드립니다</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/286356922</t>
+  </si>
+  <si>
+    <t>1.23~1.25 이탈리아 베니스 호텔 숙박권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/286356922_{cnt}_1724682399_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>&lt;베니스 숙소&gt;
+Leonardo Royal Hotel Venice Mestre
+Via Ca' Marcello, 6, 30172 Venezia VE, Italy
+https://maps.app.goo.gl/bSttBrBPBEwHfQ3T6
+​
+2박입니다.
+여행을 못가게 되어 저렴하게 양도합니다. 구매의사 있으신 분들 예약확인증 확인시켜드리고
+예약자명 변경해드리면 될 거 같습니다^^ 4.5성급이며 컴포트룸입니다. 
+구매가 80프로에 올려요. 
+이탈리아 가시는 분들 현재 객실 최저가와 비교해보시고 연락 주세요^^</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/230100732</t>
+  </si>
+  <si>
+    <t>조선호텔 롯데호텔 숙박권 및 양도  구매합니다</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/230100732_{cnt}_1689570829_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>숙박권 삽니다 연락쥬세요</t>
+  </si>
+  <si>
+    <t>https://bunjang.co.kr/products/285213286</t>
+  </si>
+  <si>
+    <t>상하농원 파머스빌리지(호텔) 패밀리룸 숙박권</t>
+  </si>
+  <si>
+    <t>https://media.bunjang.co.kr/product/285213286_{cnt}_1724775537_w{res}.jpg</t>
+  </si>
+  <si>
+    <t>상하농원 파머스빌리지 숙박권 판매합니다.
+유효기한 : 2025.12.31
+타입 : 패밀리객실
+인원 : 최대4인까지, 3인기본요금+1인 추가요금발생
+판매금액 : 300,000
+성수기, 비성수기 관계없이 모두 사용가능하며
+상하농원 홈페이지에서 예약가능일 확인 하신 후
+전화 예약, 실물 숙박권 지참하셔서 이용 하시면 됩니다.
+*조식, 스파, 상하농원 입장권 포함
+현재 기준, 성수기 4인 52만원, 비성수기 4인 39.5만원이네요~!
+실물은 등기로 발송해드리며
+중고 거래 특성상 반품 불가한 점 이해 부탁 드립니다.</t>
   </si>
 </sst>
 </file>
@@ -60282,7 +62015,6731 @@
         <v>1375</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" s="3"/>
+      <c r="B784" s="3"/>
+      <c r="C784" s="3"/>
+      <c r="D784" s="3"/>
+      <c r="E784" s="3"/>
+      <c r="F784" s="3"/>
+      <c r="G784" s="3"/>
+      <c r="H784" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I784" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J784" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K784" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L784" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M784" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N784" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O784" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P784" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q784" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R784" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S784" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T784" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U784" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C785" s="5">
+        <v>45569.69348774464</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E785" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="F785" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G785" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H785" s="4" t="s">
+        <v>2857</v>
+      </c>
+      <c r="I785" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="J785" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K785" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L785" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M785" s="4"/>
+      <c r="N785" s="4"/>
+      <c r="O785" s="4"/>
+      <c r="P785" s="4"/>
+      <c r="Q785" s="4"/>
+      <c r="R785" s="4"/>
+      <c r="S785" s="4"/>
+      <c r="T785" s="4"/>
+      <c r="U785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C786" s="5">
+        <v>45550.69348774505</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E786" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F786" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G786" s="6">
+        <v>150000.0</v>
+      </c>
+      <c r="H786" s="4" t="s">
+        <v>2862</v>
+      </c>
+      <c r="I786" s="4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J786" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K786" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L786" s="4" t="s">
+        <v>2864</v>
+      </c>
+      <c r="M786" s="4"/>
+      <c r="N786" s="4"/>
+      <c r="O786" s="4"/>
+      <c r="P786" s="4"/>
+      <c r="Q786" s="4"/>
+      <c r="R786" s="4"/>
+      <c r="S786" s="4"/>
+      <c r="T786" s="4"/>
+      <c r="U786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C787" s="5">
+        <v>45568.69348774543</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E787" s="6">
+        <v>71.0</v>
+      </c>
+      <c r="F787" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G787" s="6">
+        <v>4000.0</v>
+      </c>
+      <c r="H787" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I787" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J787" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="K787" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L787" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M787" s="4"/>
+      <c r="N787" s="4"/>
+      <c r="O787" s="4"/>
+      <c r="P787" s="4"/>
+      <c r="Q787" s="4"/>
+      <c r="R787" s="4"/>
+      <c r="S787" s="4"/>
+      <c r="T787" s="4"/>
+      <c r="U787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C788" s="5">
+        <v>45566.69348774559</v>
+      </c>
+      <c r="D788" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E788" s="6">
+        <v>515.0</v>
+      </c>
+      <c r="F788" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="G788" s="6">
+        <v>360000.0</v>
+      </c>
+      <c r="H788" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I788" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J788" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K788" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L788" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="M788" s="4"/>
+      <c r="N788" s="4"/>
+      <c r="O788" s="4"/>
+      <c r="P788" s="4"/>
+      <c r="Q788" s="4"/>
+      <c r="R788" s="4"/>
+      <c r="S788" s="4"/>
+      <c r="T788" s="4"/>
+      <c r="U788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C789" s="5">
+        <v>45566.69348774575</v>
+      </c>
+      <c r="D789" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E789" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="F789" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G789" s="6">
+        <v>70000.0</v>
+      </c>
+      <c r="H789" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I789" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J789" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K789" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L789" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M789" s="4"/>
+      <c r="N789" s="4"/>
+      <c r="O789" s="4"/>
+      <c r="P789" s="4"/>
+      <c r="Q789" s="4"/>
+      <c r="R789" s="4"/>
+      <c r="S789" s="4"/>
+      <c r="T789" s="4"/>
+      <c r="U789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C790" s="5">
+        <v>45569.69348774591</v>
+      </c>
+      <c r="D790" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E790" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="F790" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G790" s="6">
+        <v>200000.0</v>
+      </c>
+      <c r="H790" s="4" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I790" s="4" t="s">
+        <v>2868</v>
+      </c>
+      <c r="J790" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K790" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L790" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M790" s="4"/>
+      <c r="N790" s="4"/>
+      <c r="O790" s="4"/>
+      <c r="P790" s="4"/>
+      <c r="Q790" s="4"/>
+      <c r="R790" s="4"/>
+      <c r="S790" s="4"/>
+      <c r="T790" s="4"/>
+      <c r="U790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C791" s="5">
+        <v>45566.69348774602</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E791" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="F791" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G791" s="6">
+        <v>310000.0</v>
+      </c>
+      <c r="H791" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="I791" s="4" t="s">
+        <v>2872</v>
+      </c>
+      <c r="J791" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K791" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L791" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M791" s="4"/>
+      <c r="N791" s="4"/>
+      <c r="O791" s="4"/>
+      <c r="P791" s="4"/>
+      <c r="Q791" s="4"/>
+      <c r="R791" s="4"/>
+      <c r="S791" s="4"/>
+      <c r="T791" s="4"/>
+      <c r="U791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C792" s="5">
+        <v>45562.69348774616</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E792" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="F792" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G792" s="6">
+        <v>300000.0</v>
+      </c>
+      <c r="H792" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="I792" s="4" t="s">
+        <v>2876</v>
+      </c>
+      <c r="J792" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K792" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L792" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="M792" s="4"/>
+      <c r="N792" s="4"/>
+      <c r="O792" s="4"/>
+      <c r="P792" s="4"/>
+      <c r="Q792" s="4"/>
+      <c r="R792" s="4"/>
+      <c r="S792" s="4"/>
+      <c r="T792" s="4"/>
+      <c r="U792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C793" s="5">
+        <v>45567.69348774628</v>
+      </c>
+      <c r="D793" s="4" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E793" s="6">
+        <v>125.0</v>
+      </c>
+      <c r="F793" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G793" s="6">
+        <v>94000.0</v>
+      </c>
+      <c r="H793" s="4" t="s">
+        <v>2880</v>
+      </c>
+      <c r="I793" s="4" t="s">
+        <v>2881</v>
+      </c>
+      <c r="J793" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K793" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L793" s="4" t="s">
+        <v>2882</v>
+      </c>
+      <c r="M793" s="4"/>
+      <c r="N793" s="4"/>
+      <c r="O793" s="4"/>
+      <c r="P793" s="4"/>
+      <c r="Q793" s="4"/>
+      <c r="R793" s="4"/>
+      <c r="S793" s="4"/>
+      <c r="T793" s="4"/>
+      <c r="U793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C794" s="5">
+        <v>45569.69348774642</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E794" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="F794" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G794" s="6">
+        <v>650000.0</v>
+      </c>
+      <c r="H794" s="4" t="s">
+        <v>2885</v>
+      </c>
+      <c r="I794" s="4" t="s">
+        <v>2886</v>
+      </c>
+      <c r="J794" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K794" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L794" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M794" s="4"/>
+      <c r="N794" s="4"/>
+      <c r="O794" s="4"/>
+      <c r="P794" s="4"/>
+      <c r="Q794" s="4"/>
+      <c r="R794" s="4"/>
+      <c r="S794" s="4"/>
+      <c r="T794" s="4"/>
+      <c r="U794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C795" s="5">
+        <v>45569.44348774656</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E795" s="6">
+        <v>622.0</v>
+      </c>
+      <c r="F795" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="G795" s="6">
+        <v>341960.0</v>
+      </c>
+      <c r="H795" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="I795" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="J795" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K795" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L795" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="M795" s="4"/>
+      <c r="N795" s="4"/>
+      <c r="O795" s="4"/>
+      <c r="P795" s="4"/>
+      <c r="Q795" s="4"/>
+      <c r="R795" s="4"/>
+      <c r="S795" s="4"/>
+      <c r="T795" s="4"/>
+      <c r="U795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C796" s="5">
+        <v>45569.52682108007</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>2888</v>
+      </c>
+      <c r="E796" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="F796" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G796" s="6">
+        <v>365000.0</v>
+      </c>
+      <c r="H796" s="4" t="s">
+        <v>2889</v>
+      </c>
+      <c r="I796" s="4" t="s">
+        <v>2890</v>
+      </c>
+      <c r="J796" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K796" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L796" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M796" s="4"/>
+      <c r="N796" s="4"/>
+      <c r="O796" s="4"/>
+      <c r="P796" s="4"/>
+      <c r="Q796" s="4"/>
+      <c r="R796" s="4"/>
+      <c r="S796" s="4"/>
+      <c r="T796" s="4"/>
+      <c r="U796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C797" s="5">
+        <v>45569.69348774689</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E797" s="6">
+        <v>59.0</v>
+      </c>
+      <c r="F797" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G797" s="6">
+        <v>72000.0</v>
+      </c>
+      <c r="H797" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="I797" s="4" t="s">
+        <v>2894</v>
+      </c>
+      <c r="J797" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K797" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L797" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M797" s="4"/>
+      <c r="N797" s="4"/>
+      <c r="O797" s="4"/>
+      <c r="P797" s="4"/>
+      <c r="Q797" s="4"/>
+      <c r="R797" s="4"/>
+      <c r="S797" s="4"/>
+      <c r="T797" s="4"/>
+      <c r="U797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C798" s="5">
+        <v>45561.693487747</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="E798" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="F798" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G798" s="6">
+        <v>350000.0</v>
+      </c>
+      <c r="H798" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="I798" s="4" t="s">
+        <v>2898</v>
+      </c>
+      <c r="J798" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K798" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L798" s="4" t="s">
+        <v>2899</v>
+      </c>
+      <c r="M798" s="4"/>
+      <c r="N798" s="4"/>
+      <c r="O798" s="4"/>
+      <c r="P798" s="4"/>
+      <c r="Q798" s="4"/>
+      <c r="R798" s="4"/>
+      <c r="S798" s="4"/>
+      <c r="T798" s="4"/>
+      <c r="U798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C799" s="5">
+        <v>45565.69348774714</v>
+      </c>
+      <c r="D799" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E799" s="6">
+        <v>115.0</v>
+      </c>
+      <c r="F799" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G799" s="6">
+        <v>490000.0</v>
+      </c>
+      <c r="H799" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I799" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J799" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K799" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L799" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M799" s="4"/>
+      <c r="N799" s="4"/>
+      <c r="O799" s="4"/>
+      <c r="P799" s="4"/>
+      <c r="Q799" s="4"/>
+      <c r="R799" s="4"/>
+      <c r="S799" s="4"/>
+      <c r="T799" s="4"/>
+      <c r="U799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C800" s="5">
+        <v>45563.69348774728</v>
+      </c>
+      <c r="D800" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E800" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="F800" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G800" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H800" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I800" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J800" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K800" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L800" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M800" s="4"/>
+      <c r="N800" s="4"/>
+      <c r="O800" s="4"/>
+      <c r="P800" s="4"/>
+      <c r="Q800" s="4"/>
+      <c r="R800" s="4"/>
+      <c r="S800" s="4"/>
+      <c r="T800" s="4"/>
+      <c r="U800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C801" s="5">
+        <v>45564.6934877474</v>
+      </c>
+      <c r="D801" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E801" s="6">
+        <v>1508.0</v>
+      </c>
+      <c r="F801" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="G801" s="6">
+        <v>260000.0</v>
+      </c>
+      <c r="H801" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I801" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J801" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K801" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L801" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="M801" s="4"/>
+      <c r="N801" s="4"/>
+      <c r="O801" s="4"/>
+      <c r="P801" s="4"/>
+      <c r="Q801" s="4"/>
+      <c r="R801" s="4"/>
+      <c r="S801" s="4"/>
+      <c r="T801" s="4"/>
+      <c r="U801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C802" s="5">
+        <v>45569.69348774754</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E802" s="6">
+        <v>92.0</v>
+      </c>
+      <c r="F802" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G802" s="6">
+        <v>140000.0</v>
+      </c>
+      <c r="H802" s="4" t="s">
+        <v>2902</v>
+      </c>
+      <c r="I802" s="4" t="s">
+        <v>2903</v>
+      </c>
+      <c r="J802" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K802" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L802" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M802" s="4"/>
+      <c r="N802" s="4"/>
+      <c r="O802" s="4"/>
+      <c r="P802" s="4"/>
+      <c r="Q802" s="4"/>
+      <c r="R802" s="4"/>
+      <c r="S802" s="4"/>
+      <c r="T802" s="4"/>
+      <c r="U802" s="4"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C803" s="5">
+        <v>45569.36015441429</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E803" s="6">
+        <v>98.0</v>
+      </c>
+      <c r="F803" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G803" s="6">
+        <v>390000.0</v>
+      </c>
+      <c r="H803" s="4" t="s">
+        <v>2904</v>
+      </c>
+      <c r="I803" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="J803" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K803" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L803" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="M803" s="4"/>
+      <c r="N803" s="4"/>
+      <c r="O803" s="4"/>
+      <c r="P803" s="4"/>
+      <c r="Q803" s="4"/>
+      <c r="R803" s="4"/>
+      <c r="S803" s="4"/>
+      <c r="T803" s="4"/>
+      <c r="U803" s="4"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C804" s="5">
+        <v>45568.90182108111</v>
+      </c>
+      <c r="D804" s="4" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E804" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F804" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G804" s="6">
+        <v>379000.0</v>
+      </c>
+      <c r="H804" s="4" t="s">
+        <v>2907</v>
+      </c>
+      <c r="I804" s="4" t="s">
+        <v>2908</v>
+      </c>
+      <c r="J804" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K804" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L804" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M804" s="4"/>
+      <c r="N804" s="4"/>
+      <c r="O804" s="4"/>
+      <c r="P804" s="4"/>
+      <c r="Q804" s="4"/>
+      <c r="R804" s="4"/>
+      <c r="S804" s="4"/>
+      <c r="T804" s="4"/>
+      <c r="U804" s="4"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C805" s="5">
+        <v>45566.69348774793</v>
+      </c>
+      <c r="D805" s="4" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E805" s="6">
+        <v>4899.0</v>
+      </c>
+      <c r="F805" s="6">
+        <v>117.0</v>
+      </c>
+      <c r="G805" s="6">
+        <v>210000.0</v>
+      </c>
+      <c r="H805" s="4" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I805" s="4" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J805" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K805" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L805" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="M805" s="4"/>
+      <c r="N805" s="4"/>
+      <c r="O805" s="4"/>
+      <c r="P805" s="4"/>
+      <c r="Q805" s="4"/>
+      <c r="R805" s="4"/>
+      <c r="S805" s="4"/>
+      <c r="T805" s="4"/>
+      <c r="U805" s="4"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C806" s="5">
+        <v>45562.69348774805</v>
+      </c>
+      <c r="D806" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E806" s="6">
+        <v>143.0</v>
+      </c>
+      <c r="F806" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G806" s="6">
+        <v>650000.0</v>
+      </c>
+      <c r="H806" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I806" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J806" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K806" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L806" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M806" s="4"/>
+      <c r="N806" s="4"/>
+      <c r="O806" s="4"/>
+      <c r="P806" s="4"/>
+      <c r="Q806" s="4"/>
+      <c r="R806" s="4"/>
+      <c r="S806" s="4"/>
+      <c r="T806" s="4"/>
+      <c r="U806" s="4"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C807" s="5">
+        <v>45559.69348774818</v>
+      </c>
+      <c r="D807" s="4" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E807" s="6">
+        <v>62.0</v>
+      </c>
+      <c r="F807" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G807" s="6">
+        <v>8000.0</v>
+      </c>
+      <c r="H807" s="4" t="s">
+        <v>2915</v>
+      </c>
+      <c r="I807" s="4"/>
+      <c r="J807" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="K807" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L807" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M807" s="4"/>
+      <c r="N807" s="4"/>
+      <c r="O807" s="4"/>
+      <c r="P807" s="4"/>
+      <c r="Q807" s="4"/>
+      <c r="R807" s="4"/>
+      <c r="S807" s="4"/>
+      <c r="T807" s="4"/>
+      <c r="U807" s="4"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C808" s="5">
+        <v>45567.69348774832</v>
+      </c>
+      <c r="D808" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E808" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="F808" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G808" s="6">
+        <v>230000.0</v>
+      </c>
+      <c r="H808" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="I808" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="J808" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K808" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L808" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="M808" s="4"/>
+      <c r="N808" s="4"/>
+      <c r="O808" s="4"/>
+      <c r="P808" s="4"/>
+      <c r="Q808" s="4"/>
+      <c r="R808" s="4"/>
+      <c r="S808" s="4"/>
+      <c r="T808" s="4"/>
+      <c r="U808" s="4"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C809" s="5">
+        <v>45569.69348774844</v>
+      </c>
+      <c r="D809" s="4" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E809" s="6">
+        <v>197.0</v>
+      </c>
+      <c r="F809" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G809" s="6">
+        <v>320000.0</v>
+      </c>
+      <c r="H809" s="4" t="s">
+        <v>2918</v>
+      </c>
+      <c r="I809" s="4" t="s">
+        <v>2919</v>
+      </c>
+      <c r="J809" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K809" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L809" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M809" s="4"/>
+      <c r="N809" s="4"/>
+      <c r="O809" s="4"/>
+      <c r="P809" s="4"/>
+      <c r="Q809" s="4"/>
+      <c r="R809" s="4"/>
+      <c r="S809" s="4"/>
+      <c r="T809" s="4"/>
+      <c r="U809" s="4"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C810" s="5">
+        <v>45569.69348774854</v>
+      </c>
+      <c r="D810" s="4" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E810" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="F810" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G810" s="6">
+        <v>140000.0</v>
+      </c>
+      <c r="H810" s="4" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I810" s="4" t="s">
+        <v>2923</v>
+      </c>
+      <c r="J810" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K810" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L810" s="4" t="s">
+        <v>2924</v>
+      </c>
+      <c r="M810" s="4"/>
+      <c r="N810" s="4"/>
+      <c r="O810" s="4"/>
+      <c r="P810" s="4"/>
+      <c r="Q810" s="4"/>
+      <c r="R810" s="4"/>
+      <c r="S810" s="4"/>
+      <c r="T810" s="4"/>
+      <c r="U810" s="4"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C811" s="5">
+        <v>45569.69348774863</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E811" s="6">
+        <v>385.0</v>
+      </c>
+      <c r="F811" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G811" s="6">
+        <v>29000.0</v>
+      </c>
+      <c r="H811" s="4" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I811" s="4" t="s">
+        <v>2928</v>
+      </c>
+      <c r="J811" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K811" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L811" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="M811" s="4"/>
+      <c r="N811" s="4"/>
+      <c r="O811" s="4"/>
+      <c r="P811" s="4"/>
+      <c r="Q811" s="4"/>
+      <c r="R811" s="4"/>
+      <c r="S811" s="4"/>
+      <c r="T811" s="4"/>
+      <c r="U811" s="4"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C812" s="5">
+        <v>45569.69348774875</v>
+      </c>
+      <c r="D812" s="4" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E812" s="6">
+        <v>121.0</v>
+      </c>
+      <c r="F812" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G812" s="6">
+        <v>200000.0</v>
+      </c>
+      <c r="H812" s="4" t="s">
+        <v>2931</v>
+      </c>
+      <c r="I812" s="4" t="s">
+        <v>2932</v>
+      </c>
+      <c r="J812" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="K812" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L812" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M812" s="4"/>
+      <c r="N812" s="4"/>
+      <c r="O812" s="4"/>
+      <c r="P812" s="4"/>
+      <c r="Q812" s="4"/>
+      <c r="R812" s="4"/>
+      <c r="S812" s="4"/>
+      <c r="T812" s="4"/>
+      <c r="U812" s="4"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C813" s="5">
+        <v>45565.69348774885</v>
+      </c>
+      <c r="D813" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E813" s="6">
+        <v>1549.0</v>
+      </c>
+      <c r="F813" s="6">
+        <v>44.0</v>
+      </c>
+      <c r="G813" s="6">
+        <v>180000.0</v>
+      </c>
+      <c r="H813" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I813" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J813" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K813" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L813" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="M813" s="4"/>
+      <c r="N813" s="4"/>
+      <c r="O813" s="4"/>
+      <c r="P813" s="4"/>
+      <c r="Q813" s="4"/>
+      <c r="R813" s="4"/>
+      <c r="S813" s="4"/>
+      <c r="T813" s="4"/>
+      <c r="U813" s="4"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C814" s="5">
+        <v>45556.69348774899</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E814" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="F814" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G814" s="6">
+        <v>100000.0</v>
+      </c>
+      <c r="H814" s="4" t="s">
+        <v>2935</v>
+      </c>
+      <c r="I814" s="4" t="s">
+        <v>2936</v>
+      </c>
+      <c r="J814" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="K814" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L814" s="4" t="s">
+        <v>2937</v>
+      </c>
+      <c r="M814" s="4"/>
+      <c r="N814" s="4"/>
+      <c r="O814" s="4"/>
+      <c r="P814" s="4"/>
+      <c r="Q814" s="4"/>
+      <c r="R814" s="4"/>
+      <c r="S814" s="4"/>
+      <c r="T814" s="4"/>
+      <c r="U814" s="4"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C815" s="5">
+        <v>45569.44348774912</v>
+      </c>
+      <c r="D815" s="4" t="s">
+        <v>2939</v>
+      </c>
+      <c r="E815" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="F815" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="G815" s="6">
+        <v>1000.0</v>
+      </c>
+      <c r="H815" s="4" t="s">
+        <v>2940</v>
+      </c>
+      <c r="I815" s="4" t="s">
+        <v>2941</v>
+      </c>
+      <c r="J815" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K815" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L815" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M815" s="4"/>
+      <c r="N815" s="4"/>
+      <c r="O815" s="4"/>
+      <c r="P815" s="4"/>
+      <c r="Q815" s="4"/>
+      <c r="R815" s="4"/>
+      <c r="S815" s="4"/>
+      <c r="T815" s="4"/>
+      <c r="U815" s="4"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C816" s="5">
+        <v>45569.69348774927</v>
+      </c>
+      <c r="D816" s="4" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E816" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="F816" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G816" s="6">
+        <v>100000.0</v>
+      </c>
+      <c r="H816" s="4" t="s">
+        <v>2944</v>
+      </c>
+      <c r="I816" s="4" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J816" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="K816" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L816" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M816" s="4"/>
+      <c r="N816" s="4"/>
+      <c r="O816" s="4"/>
+      <c r="P816" s="4"/>
+      <c r="Q816" s="4"/>
+      <c r="R816" s="4"/>
+      <c r="S816" s="4"/>
+      <c r="T816" s="4"/>
+      <c r="U816" s="4"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C817" s="5">
+        <v>45569.27682108271</v>
+      </c>
+      <c r="D817" s="4" t="s">
+        <v>2947</v>
+      </c>
+      <c r="E817" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="F817" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G817" s="6">
+        <v>28000.0</v>
+      </c>
+      <c r="H817" s="4" t="s">
+        <v>2948</v>
+      </c>
+      <c r="I817" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="J817" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="K817" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L817" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M817" s="4"/>
+      <c r="N817" s="4"/>
+      <c r="O817" s="4"/>
+      <c r="P817" s="4"/>
+      <c r="Q817" s="4"/>
+      <c r="R817" s="4"/>
+      <c r="S817" s="4"/>
+      <c r="T817" s="4"/>
+      <c r="U817" s="4"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C818" s="5">
+        <v>45568.69348774952</v>
+      </c>
+      <c r="D818" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="E818" s="6">
+        <v>187.0</v>
+      </c>
+      <c r="F818" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G818" s="6">
+        <v>150000.0</v>
+      </c>
+      <c r="H818" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="I818" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="J818" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K818" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L818" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M818" s="4"/>
+      <c r="N818" s="4"/>
+      <c r="O818" s="4"/>
+      <c r="P818" s="4"/>
+      <c r="Q818" s="4"/>
+      <c r="R818" s="4"/>
+      <c r="S818" s="4"/>
+      <c r="T818" s="4"/>
+      <c r="U818" s="4"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C819" s="5">
+        <v>45562.69348774965</v>
+      </c>
+      <c r="D819" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E819" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="F819" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G819" s="6">
+        <v>63000.0</v>
+      </c>
+      <c r="H819" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I819" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J819" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K819" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L819" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M819" s="4"/>
+      <c r="N819" s="4"/>
+      <c r="O819" s="4"/>
+      <c r="P819" s="4"/>
+      <c r="Q819" s="4"/>
+      <c r="R819" s="4"/>
+      <c r="S819" s="4"/>
+      <c r="T819" s="4"/>
+      <c r="U819" s="4"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C820" s="5">
+        <v>45569.69348774978</v>
+      </c>
+      <c r="D820" s="4" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E820" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="F820" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G820" s="6">
+        <v>15000.0</v>
+      </c>
+      <c r="H820" s="4" t="s">
+        <v>2952</v>
+      </c>
+      <c r="I820" s="4" t="s">
+        <v>2953</v>
+      </c>
+      <c r="J820" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="K820" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L820" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M820" s="4"/>
+      <c r="N820" s="4"/>
+      <c r="O820" s="4"/>
+      <c r="P820" s="4"/>
+      <c r="Q820" s="4"/>
+      <c r="R820" s="4"/>
+      <c r="S820" s="4"/>
+      <c r="T820" s="4"/>
+      <c r="U820" s="4"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B821" s="4" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C821" s="5">
+        <v>45569.69348774987</v>
+      </c>
+      <c r="D821" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E821" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="F821" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G821" s="6">
+        <v>60000.0</v>
+      </c>
+      <c r="H821" s="4" t="s">
+        <v>2956</v>
+      </c>
+      <c r="I821" s="4" t="s">
+        <v>2957</v>
+      </c>
+      <c r="J821" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K821" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L821" s="4" t="s">
+        <v>2958</v>
+      </c>
+      <c r="M821" s="4"/>
+      <c r="N821" s="4"/>
+      <c r="O821" s="4"/>
+      <c r="P821" s="4"/>
+      <c r="Q821" s="4"/>
+      <c r="R821" s="4"/>
+      <c r="S821" s="4"/>
+      <c r="T821" s="4"/>
+      <c r="U821" s="4"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B822" s="4" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C822" s="5">
+        <v>45569.69348774997</v>
+      </c>
+      <c r="D822" s="4" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E822" s="6">
+        <v>126.0</v>
+      </c>
+      <c r="F822" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G822" s="6">
+        <v>300000.0</v>
+      </c>
+      <c r="H822" s="4" t="s">
+        <v>2961</v>
+      </c>
+      <c r="I822" s="4" t="s">
+        <v>2962</v>
+      </c>
+      <c r="J822" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K822" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L822" s="4" t="s">
+        <v>2963</v>
+      </c>
+      <c r="M822" s="4"/>
+      <c r="N822" s="4"/>
+      <c r="O822" s="4"/>
+      <c r="P822" s="4"/>
+      <c r="Q822" s="4"/>
+      <c r="R822" s="4"/>
+      <c r="S822" s="4"/>
+      <c r="T822" s="4"/>
+      <c r="U822" s="4"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B823" s="4" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C823" s="5">
+        <v>45568.90182108341</v>
+      </c>
+      <c r="D823" s="4" t="s">
+        <v>2965</v>
+      </c>
+      <c r="E823" s="6">
+        <v>79.0</v>
+      </c>
+      <c r="F823" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G823" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H823" s="4" t="s">
+        <v>2966</v>
+      </c>
+      <c r="I823" s="4" t="s">
+        <v>2967</v>
+      </c>
+      <c r="J823" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K823" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L823" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M823" s="4"/>
+      <c r="N823" s="4"/>
+      <c r="O823" s="4"/>
+      <c r="P823" s="4"/>
+      <c r="Q823" s="4"/>
+      <c r="R823" s="4"/>
+      <c r="S823" s="4"/>
+      <c r="T823" s="4"/>
+      <c r="U823" s="4"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C824" s="5">
+        <v>45569.02682108356</v>
+      </c>
+      <c r="D824" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E824" s="6">
+        <v>151.0</v>
+      </c>
+      <c r="F824" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G824" s="6">
+        <v>100000.0</v>
+      </c>
+      <c r="H824" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I824" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J824" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K824" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L824" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M824" s="4"/>
+      <c r="N824" s="4"/>
+      <c r="O824" s="4"/>
+      <c r="P824" s="4"/>
+      <c r="Q824" s="4"/>
+      <c r="R824" s="4"/>
+      <c r="S824" s="4"/>
+      <c r="T824" s="4"/>
+      <c r="U824" s="4"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C825" s="5">
+        <v>45569.69348775071</v>
+      </c>
+      <c r="D825" s="4" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E825" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="F825" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G825" s="6">
+        <v>10000.0</v>
+      </c>
+      <c r="H825" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="I825" s="4" t="s">
+        <v>2971</v>
+      </c>
+      <c r="J825" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K825" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L825" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="M825" s="4"/>
+      <c r="N825" s="4"/>
+      <c r="O825" s="4"/>
+      <c r="P825" s="4"/>
+      <c r="Q825" s="4"/>
+      <c r="R825" s="4"/>
+      <c r="S825" s="4"/>
+      <c r="T825" s="4"/>
+      <c r="U825" s="4"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C826" s="5">
+        <v>45569.69348775082</v>
+      </c>
+      <c r="D826" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E826" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="F826" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G826" s="6">
+        <v>1500000.0</v>
+      </c>
+      <c r="H826" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="I826" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J826" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K826" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L826" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M826" s="4"/>
+      <c r="N826" s="4"/>
+      <c r="O826" s="4"/>
+      <c r="P826" s="4"/>
+      <c r="Q826" s="4"/>
+      <c r="R826" s="4"/>
+      <c r="S826" s="4"/>
+      <c r="T826" s="4"/>
+      <c r="U826" s="4"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B827" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C827" s="5">
+        <v>45556.69348775093</v>
+      </c>
+      <c r="D827" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E827" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="F827" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G827" s="6">
+        <v>90000.0</v>
+      </c>
+      <c r="H827" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="I827" s="4" t="s">
+        <v>2979</v>
+      </c>
+      <c r="J827" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K827" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L827" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M827" s="4"/>
+      <c r="N827" s="4"/>
+      <c r="O827" s="4"/>
+      <c r="P827" s="4"/>
+      <c r="Q827" s="4"/>
+      <c r="R827" s="4"/>
+      <c r="S827" s="4"/>
+      <c r="T827" s="4"/>
+      <c r="U827" s="4"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B828" s="4" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C828" s="5">
+        <v>45556.69348775108</v>
+      </c>
+      <c r="D828" s="4" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E828" s="6">
+        <v>29.0</v>
+      </c>
+      <c r="F828" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G828" s="6">
+        <v>360000.0</v>
+      </c>
+      <c r="H828" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="I828" s="4" t="s">
+        <v>2983</v>
+      </c>
+      <c r="J828" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K828" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L828" s="4" t="s">
+        <v>2984</v>
+      </c>
+      <c r="M828" s="4"/>
+      <c r="N828" s="4"/>
+      <c r="O828" s="4"/>
+      <c r="P828" s="4"/>
+      <c r="Q828" s="4"/>
+      <c r="R828" s="4"/>
+      <c r="S828" s="4"/>
+      <c r="T828" s="4"/>
+      <c r="U828" s="4"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C829" s="5">
+        <v>45565.69348775122</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E829" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="F829" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G829" s="6">
+        <v>20000.0</v>
+      </c>
+      <c r="H829" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I829" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J829" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K829" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L829" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M829" s="4"/>
+      <c r="N829" s="4"/>
+      <c r="O829" s="4"/>
+      <c r="P829" s="4"/>
+      <c r="Q829" s="4"/>
+      <c r="R829" s="4"/>
+      <c r="S829" s="4"/>
+      <c r="T829" s="4"/>
+      <c r="U829" s="4"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C830" s="5">
+        <v>45569.69348775134</v>
+      </c>
+      <c r="D830" s="4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E830" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="F830" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G830" s="6">
+        <v>950000.0</v>
+      </c>
+      <c r="H830" s="4" t="s">
+        <v>2987</v>
+      </c>
+      <c r="I830" s="4" t="s">
+        <v>2988</v>
+      </c>
+      <c r="J830" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K830" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L830" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M830" s="4"/>
+      <c r="N830" s="4"/>
+      <c r="O830" s="4"/>
+      <c r="P830" s="4"/>
+      <c r="Q830" s="4"/>
+      <c r="R830" s="4"/>
+      <c r="S830" s="4"/>
+      <c r="T830" s="4"/>
+      <c r="U830" s="4"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B831" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C831" s="5">
+        <v>45567.69348775144</v>
+      </c>
+      <c r="D831" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="E831" s="6">
+        <v>42.0</v>
+      </c>
+      <c r="F831" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G831" s="6">
+        <v>100000.0</v>
+      </c>
+      <c r="H831" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="I831" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="J831" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K831" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L831" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="M831" s="4"/>
+      <c r="N831" s="4"/>
+      <c r="O831" s="4"/>
+      <c r="P831" s="4"/>
+      <c r="Q831" s="4"/>
+      <c r="R831" s="4"/>
+      <c r="S831" s="4"/>
+      <c r="T831" s="4"/>
+      <c r="U831" s="4"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B832" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C832" s="5">
+        <v>45569.61015441825</v>
+      </c>
+      <c r="D832" s="4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E832" s="6">
+        <v>117.0</v>
+      </c>
+      <c r="F832" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G832" s="6">
+        <v>65000.0</v>
+      </c>
+      <c r="H832" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="I832" s="4" t="s">
+        <v>2992</v>
+      </c>
+      <c r="J832" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K832" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L832" s="4" t="s">
+        <v>2993</v>
+      </c>
+      <c r="M832" s="4"/>
+      <c r="N832" s="4"/>
+      <c r="O832" s="4"/>
+      <c r="P832" s="4"/>
+      <c r="Q832" s="4"/>
+      <c r="R832" s="4"/>
+      <c r="S832" s="4"/>
+      <c r="T832" s="4"/>
+      <c r="U832" s="4"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C833" s="5">
+        <v>45569.61015441841</v>
+      </c>
+      <c r="D833" s="4" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E833" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="F833" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G833" s="6">
+        <v>300000.0</v>
+      </c>
+      <c r="H833" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="I833" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="J833" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K833" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L833" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="M833" s="4"/>
+      <c r="N833" s="4"/>
+      <c r="O833" s="4"/>
+      <c r="P833" s="4"/>
+      <c r="Q833" s="4"/>
+      <c r="R833" s="4"/>
+      <c r="S833" s="4"/>
+      <c r="T833" s="4"/>
+      <c r="U833" s="4"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C834" s="5">
+        <v>45569.52682108522</v>
+      </c>
+      <c r="D834" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E834" s="6">
+        <v>401.0</v>
+      </c>
+      <c r="F834" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G834" s="6">
+        <v>95000.0</v>
+      </c>
+      <c r="H834" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="I834" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="J834" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="K834" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L834" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="M834" s="4"/>
+      <c r="N834" s="4"/>
+      <c r="O834" s="4"/>
+      <c r="P834" s="4"/>
+      <c r="Q834" s="4"/>
+      <c r="R834" s="4"/>
+      <c r="S834" s="4"/>
+      <c r="T834" s="4"/>
+      <c r="U834" s="4"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B835" s="4" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C835" s="5">
+        <v>45569.69348775203</v>
+      </c>
+      <c r="D835" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="E835" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="F835" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G835" s="6">
+        <v>940000.0</v>
+      </c>
+      <c r="H835" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="I835" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="J835" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K835" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L835" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="M835" s="4"/>
+      <c r="N835" s="4"/>
+      <c r="O835" s="4"/>
+      <c r="P835" s="4"/>
+      <c r="Q835" s="4"/>
+      <c r="R835" s="4"/>
+      <c r="S835" s="4"/>
+      <c r="T835" s="4"/>
+      <c r="U835" s="4"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C836" s="5">
+        <v>45569.69348775214</v>
+      </c>
+      <c r="D836" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E836" s="6">
+        <v>134.0</v>
+      </c>
+      <c r="F836" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G836" s="6">
+        <v>120000.0</v>
+      </c>
+      <c r="H836" s="4" t="s">
+        <v>3005</v>
+      </c>
+      <c r="I836" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="J836" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K836" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L836" s="4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="M836" s="4"/>
+      <c r="N836" s="4"/>
+      <c r="O836" s="4"/>
+      <c r="P836" s="4"/>
+      <c r="Q836" s="4"/>
+      <c r="R836" s="4"/>
+      <c r="S836" s="4"/>
+      <c r="T836" s="4"/>
+      <c r="U836" s="4"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B837" s="4" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C837" s="5">
+        <v>45569.69348775226</v>
+      </c>
+      <c r="D837" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="E837" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="F837" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G837" s="6">
+        <v>60000.0</v>
+      </c>
+      <c r="H837" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I837" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="J837" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K837" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L837" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M837" s="4"/>
+      <c r="N837" s="4"/>
+      <c r="O837" s="4"/>
+      <c r="P837" s="4"/>
+      <c r="Q837" s="4"/>
+      <c r="R837" s="4"/>
+      <c r="S837" s="4"/>
+      <c r="T837" s="4"/>
+      <c r="U837" s="4"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C838" s="5">
+        <v>45545.69348775236</v>
+      </c>
+      <c r="D838" s="4" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E838" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="F838" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G838" s="6">
+        <v>50000.0</v>
+      </c>
+      <c r="H838" s="4" t="s">
+        <v>3014</v>
+      </c>
+      <c r="I838" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J838" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K838" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L838" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M838" s="4"/>
+      <c r="N838" s="4"/>
+      <c r="O838" s="4"/>
+      <c r="P838" s="4"/>
+      <c r="Q838" s="4"/>
+      <c r="R838" s="4"/>
+      <c r="S838" s="4"/>
+      <c r="T838" s="4"/>
+      <c r="U838" s="4"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B839" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C839" s="5">
+        <v>45564.69348775249</v>
+      </c>
+      <c r="D839" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E839" s="6">
+        <v>1104.0</v>
+      </c>
+      <c r="F839" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="G839" s="6">
+        <v>100000.0</v>
+      </c>
+      <c r="H839" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I839" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J839" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K839" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L839" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="M839" s="4"/>
+      <c r="N839" s="4"/>
+      <c r="O839" s="4"/>
+      <c r="P839" s="4"/>
+      <c r="Q839" s="4"/>
+      <c r="R839" s="4"/>
+      <c r="S839" s="4"/>
+      <c r="T839" s="4"/>
+      <c r="U839" s="4"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C840" s="5">
+        <v>45562.69348775261</v>
+      </c>
+      <c r="D840" s="4" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E840" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="F840" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G840" s="6">
+        <v>170000.0</v>
+      </c>
+      <c r="H840" s="4" t="s">
+        <v>3018</v>
+      </c>
+      <c r="I840" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="J840" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K840" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L840" s="4" t="s">
+        <v>3020</v>
+      </c>
+      <c r="M840" s="4"/>
+      <c r="N840" s="4"/>
+      <c r="O840" s="4"/>
+      <c r="P840" s="4"/>
+      <c r="Q840" s="4"/>
+      <c r="R840" s="4"/>
+      <c r="S840" s="4"/>
+      <c r="T840" s="4"/>
+      <c r="U840" s="4"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B841" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C841" s="5">
+        <v>45565.69348775273</v>
+      </c>
+      <c r="D841" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E841" s="6">
+        <v>62.0</v>
+      </c>
+      <c r="F841" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G841" s="6">
+        <v>360000.0</v>
+      </c>
+      <c r="H841" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I841" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J841" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K841" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L841" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M841" s="4"/>
+      <c r="N841" s="4"/>
+      <c r="O841" s="4"/>
+      <c r="P841" s="4"/>
+      <c r="Q841" s="4"/>
+      <c r="R841" s="4"/>
+      <c r="S841" s="4"/>
+      <c r="T841" s="4"/>
+      <c r="U841" s="4"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C842" s="5">
+        <v>45566.69348775286</v>
+      </c>
+      <c r="D842" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E842" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="F842" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G842" s="6">
+        <v>200000.0</v>
+      </c>
+      <c r="H842" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I842" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J842" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K842" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L842" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M842" s="4"/>
+      <c r="N842" s="4"/>
+      <c r="O842" s="4"/>
+      <c r="P842" s="4"/>
+      <c r="Q842" s="4"/>
+      <c r="R842" s="4"/>
+      <c r="S842" s="4"/>
+      <c r="T842" s="4"/>
+      <c r="U842" s="4"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B843" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C843" s="5">
+        <v>45566.69348775297</v>
+      </c>
+      <c r="D843" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="E843" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="F843" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G843" s="6">
+        <v>330000.0</v>
+      </c>
+      <c r="H843" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="I843" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="J843" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K843" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L843" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M843" s="4"/>
+      <c r="N843" s="4"/>
+      <c r="O843" s="4"/>
+      <c r="P843" s="4"/>
+      <c r="Q843" s="4"/>
+      <c r="R843" s="4"/>
+      <c r="S843" s="4"/>
+      <c r="T843" s="4"/>
+      <c r="U843" s="4"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C844" s="5">
+        <v>45561.69348775309</v>
+      </c>
+      <c r="D844" s="4" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E844" s="6">
+        <v>375.0</v>
+      </c>
+      <c r="F844" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="G844" s="6">
+        <v>20000.0</v>
+      </c>
+      <c r="H844" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="I844" s="4" t="s">
+        <v>3024</v>
+      </c>
+      <c r="J844" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="K844" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L844" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M844" s="4"/>
+      <c r="N844" s="4"/>
+      <c r="O844" s="4"/>
+      <c r="P844" s="4"/>
+      <c r="Q844" s="4"/>
+      <c r="R844" s="4"/>
+      <c r="S844" s="4"/>
+      <c r="T844" s="4"/>
+      <c r="U844" s="4"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B845" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C845" s="5">
+        <v>45565.69348775322</v>
+      </c>
+      <c r="D845" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E845" s="6">
+        <v>177.0</v>
+      </c>
+      <c r="F845" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G845" s="6">
+        <v>1000000.0</v>
+      </c>
+      <c r="H845" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I845" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J845" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K845" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L845" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M845" s="4"/>
+      <c r="N845" s="4"/>
+      <c r="O845" s="4"/>
+      <c r="P845" s="4"/>
+      <c r="Q845" s="4"/>
+      <c r="R845" s="4"/>
+      <c r="S845" s="4"/>
+      <c r="T845" s="4"/>
+      <c r="U845" s="4"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B846" s="4" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C846" s="5">
+        <v>45569.69348775333</v>
+      </c>
+      <c r="D846" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E846" s="6">
+        <v>154.0</v>
+      </c>
+      <c r="F846" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G846" s="6">
+        <v>990000.0</v>
+      </c>
+      <c r="H846" s="4" t="s">
+        <v>3027</v>
+      </c>
+      <c r="I846" s="4" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J846" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K846" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L846" s="4" t="s">
+        <v>3029</v>
+      </c>
+      <c r="M846" s="4"/>
+      <c r="N846" s="4"/>
+      <c r="O846" s="4"/>
+      <c r="P846" s="4"/>
+      <c r="Q846" s="4"/>
+      <c r="R846" s="4"/>
+      <c r="S846" s="4"/>
+      <c r="T846" s="4"/>
+      <c r="U846" s="4"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B847" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C847" s="5">
+        <v>45569.02682108677</v>
+      </c>
+      <c r="D847" s="4" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E847" s="6">
+        <v>293.0</v>
+      </c>
+      <c r="F847" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="G847" s="6">
+        <v>45000.0</v>
+      </c>
+      <c r="H847" s="4" t="s">
+        <v>3032</v>
+      </c>
+      <c r="I847" s="4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="J847" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K847" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L847" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="M847" s="4"/>
+      <c r="N847" s="4"/>
+      <c r="O847" s="4"/>
+      <c r="P847" s="4"/>
+      <c r="Q847" s="4"/>
+      <c r="R847" s="4"/>
+      <c r="S847" s="4"/>
+      <c r="T847" s="4"/>
+      <c r="U847" s="4"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B848" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C848" s="5">
+        <v>45565.69348775358</v>
+      </c>
+      <c r="D848" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="E848" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="F848" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G848" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H848" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="I848" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="J848" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K848" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L848" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M848" s="4"/>
+      <c r="N848" s="4"/>
+      <c r="O848" s="4"/>
+      <c r="P848" s="4"/>
+      <c r="Q848" s="4"/>
+      <c r="R848" s="4"/>
+      <c r="S848" s="4"/>
+      <c r="T848" s="4"/>
+      <c r="U848" s="4"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B849" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C849" s="5">
+        <v>45552.69348775371</v>
+      </c>
+      <c r="D849" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E849" s="6">
+        <v>41.0</v>
+      </c>
+      <c r="F849" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G849" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="H849" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="I849" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="J849" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K849" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L849" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M849" s="4"/>
+      <c r="N849" s="4"/>
+      <c r="O849" s="4"/>
+      <c r="P849" s="4"/>
+      <c r="Q849" s="4"/>
+      <c r="R849" s="4"/>
+      <c r="S849" s="4"/>
+      <c r="T849" s="4"/>
+      <c r="U849" s="4"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C850" s="5">
+        <v>45568.69348775382</v>
+      </c>
+      <c r="D850" s="4" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E850" s="6">
+        <v>91.0</v>
+      </c>
+      <c r="F850" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="G850" s="6">
+        <v>10000.0</v>
+      </c>
+      <c r="H850" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="I850" s="4" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J850" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="K850" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L850" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M850" s="4"/>
+      <c r="N850" s="4"/>
+      <c r="O850" s="4"/>
+      <c r="P850" s="4"/>
+      <c r="Q850" s="4"/>
+      <c r="R850" s="4"/>
+      <c r="S850" s="4"/>
+      <c r="T850" s="4"/>
+      <c r="U850" s="4"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B851" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C851" s="5">
+        <v>45568.69348775396</v>
+      </c>
+      <c r="D851" s="4" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E851" s="6">
+        <v>224.0</v>
+      </c>
+      <c r="F851" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G851" s="6">
+        <v>90000.0</v>
+      </c>
+      <c r="H851" s="4" t="s">
+        <v>3045</v>
+      </c>
+      <c r="I851" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="J851" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K851" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L851" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="M851" s="4"/>
+      <c r="N851" s="4"/>
+      <c r="O851" s="4"/>
+      <c r="P851" s="4"/>
+      <c r="Q851" s="4"/>
+      <c r="R851" s="4"/>
+      <c r="S851" s="4"/>
+      <c r="T851" s="4"/>
+      <c r="U851" s="4"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C852" s="5">
+        <v>45569.69348775416</v>
+      </c>
+      <c r="D852" s="4" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E852" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="F852" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G852" s="6">
+        <v>1254000.0</v>
+      </c>
+      <c r="H852" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="I852" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="J852" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K852" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L852" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M852" s="4"/>
+      <c r="N852" s="4"/>
+      <c r="O852" s="4"/>
+      <c r="P852" s="4"/>
+      <c r="Q852" s="4"/>
+      <c r="R852" s="4"/>
+      <c r="S852" s="4"/>
+      <c r="T852" s="4"/>
+      <c r="U852" s="4"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C853" s="5">
+        <v>45566.69348775427</v>
+      </c>
+      <c r="D853" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E853" s="6">
+        <v>1292.0</v>
+      </c>
+      <c r="F853" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="G853" s="6">
+        <v>50000.0</v>
+      </c>
+      <c r="H853" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I853" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J853" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K853" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L853" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="M853" s="4"/>
+      <c r="N853" s="4"/>
+      <c r="O853" s="4"/>
+      <c r="P853" s="4"/>
+      <c r="Q853" s="4"/>
+      <c r="R853" s="4"/>
+      <c r="S853" s="4"/>
+      <c r="T853" s="4"/>
+      <c r="U853" s="4"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C854" s="5">
+        <v>45562.69348775441</v>
+      </c>
+      <c r="D854" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E854" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F854" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G854" s="6">
+        <v>3000.0</v>
+      </c>
+      <c r="H854" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="I854" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="J854" s="4" t="s">
+        <v>3056</v>
+      </c>
+      <c r="K854" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L854" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M854" s="4"/>
+      <c r="N854" s="4"/>
+      <c r="O854" s="4"/>
+      <c r="P854" s="4"/>
+      <c r="Q854" s="4"/>
+      <c r="R854" s="4"/>
+      <c r="S854" s="4"/>
+      <c r="T854" s="4"/>
+      <c r="U854" s="4"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C855" s="5">
+        <v>45569.69348775455</v>
+      </c>
+      <c r="D855" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E855" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="F855" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G855" s="6">
+        <v>150000.0</v>
+      </c>
+      <c r="H855" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="I855" s="4" t="s">
+        <v>3060</v>
+      </c>
+      <c r="J855" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K855" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L855" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M855" s="4"/>
+      <c r="N855" s="4"/>
+      <c r="O855" s="4"/>
+      <c r="P855" s="4"/>
+      <c r="Q855" s="4"/>
+      <c r="R855" s="4"/>
+      <c r="S855" s="4"/>
+      <c r="T855" s="4"/>
+      <c r="U855" s="4"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C856" s="5">
+        <v>45569.69348775465</v>
+      </c>
+      <c r="D856" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E856" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="F856" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G856" s="6">
+        <v>90000.0</v>
+      </c>
+      <c r="H856" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="I856" s="4" t="s">
+        <v>3064</v>
+      </c>
+      <c r="J856" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K856" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L856" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="M856" s="4"/>
+      <c r="N856" s="4"/>
+      <c r="O856" s="4"/>
+      <c r="P856" s="4"/>
+      <c r="Q856" s="4"/>
+      <c r="R856" s="4"/>
+      <c r="S856" s="4"/>
+      <c r="T856" s="4"/>
+      <c r="U856" s="4"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C857" s="5">
+        <v>45567.69348775475</v>
+      </c>
+      <c r="D857" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E857" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="F857" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G857" s="6">
+        <v>210000.0</v>
+      </c>
+      <c r="H857" s="4" t="s">
+        <v>3067</v>
+      </c>
+      <c r="I857" s="4" t="s">
+        <v>3068</v>
+      </c>
+      <c r="J857" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K857" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L857" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M857" s="4"/>
+      <c r="N857" s="4"/>
+      <c r="O857" s="4"/>
+      <c r="P857" s="4"/>
+      <c r="Q857" s="4"/>
+      <c r="R857" s="4"/>
+      <c r="S857" s="4"/>
+      <c r="T857" s="4"/>
+      <c r="U857" s="4"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B858" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C858" s="5">
+        <v>45569.69348775488</v>
+      </c>
+      <c r="D858" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E858" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="F858" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G858" s="6">
+        <v>450000.0</v>
+      </c>
+      <c r="H858" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I858" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="J858" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K858" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L858" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="M858" s="4"/>
+      <c r="N858" s="4"/>
+      <c r="O858" s="4"/>
+      <c r="P858" s="4"/>
+      <c r="Q858" s="4"/>
+      <c r="R858" s="4"/>
+      <c r="S858" s="4"/>
+      <c r="T858" s="4"/>
+      <c r="U858" s="4"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B859" s="4" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C859" s="5">
+        <v>45569.69348775499</v>
+      </c>
+      <c r="D859" s="4" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E859" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="F859" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G859" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H859" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="I859" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="J859" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K859" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L859" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M859" s="4"/>
+      <c r="N859" s="4"/>
+      <c r="O859" s="4"/>
+      <c r="P859" s="4"/>
+      <c r="Q859" s="4"/>
+      <c r="R859" s="4"/>
+      <c r="S859" s="4"/>
+      <c r="T859" s="4"/>
+      <c r="U859" s="4"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B860" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C860" s="5">
+        <v>45566.69348775508</v>
+      </c>
+      <c r="D860" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="E860" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="F860" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G860" s="6">
+        <v>83000.0</v>
+      </c>
+      <c r="H860" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="I860" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="J860" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K860" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L860" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M860" s="4"/>
+      <c r="N860" s="4"/>
+      <c r="O860" s="4"/>
+      <c r="P860" s="4"/>
+      <c r="Q860" s="4"/>
+      <c r="R860" s="4"/>
+      <c r="S860" s="4"/>
+      <c r="T860" s="4"/>
+      <c r="U860" s="4"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B861" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C861" s="5">
+        <v>45566.6934877552</v>
+      </c>
+      <c r="D861" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="E861" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="F861" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G861" s="6">
+        <v>150000.0</v>
+      </c>
+      <c r="H861" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="I861" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="J861" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="K861" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L861" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M861" s="4"/>
+      <c r="N861" s="4"/>
+      <c r="O861" s="4"/>
+      <c r="P861" s="4"/>
+      <c r="Q861" s="4"/>
+      <c r="R861" s="4"/>
+      <c r="S861" s="4"/>
+      <c r="T861" s="4"/>
+      <c r="U861" s="4"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B862" s="4" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C862" s="5">
+        <v>45557.69348775541</v>
+      </c>
+      <c r="D862" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E862" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="F862" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G862" s="6">
+        <v>3000.0</v>
+      </c>
+      <c r="H862" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="I862" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="J862" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K862" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L862" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="M862" s="4"/>
+      <c r="N862" s="4"/>
+      <c r="O862" s="4"/>
+      <c r="P862" s="4"/>
+      <c r="Q862" s="4"/>
+      <c r="R862" s="4"/>
+      <c r="S862" s="4"/>
+      <c r="T862" s="4"/>
+      <c r="U862" s="4"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B863" s="4" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C863" s="5">
+        <v>45566.69348775553</v>
+      </c>
+      <c r="D863" s="4" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E863" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F863" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G863" s="6">
+        <v>580000.0</v>
+      </c>
+      <c r="H863" s="4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="I863" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="J863" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K863" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L863" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M863" s="4"/>
+      <c r="N863" s="4"/>
+      <c r="O863" s="4"/>
+      <c r="P863" s="4"/>
+      <c r="Q863" s="4"/>
+      <c r="R863" s="4"/>
+      <c r="S863" s="4"/>
+      <c r="T863" s="4"/>
+      <c r="U863" s="4"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B864" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C864" s="5">
+        <v>45569.36015442233</v>
+      </c>
+      <c r="D864" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="E864" s="6">
+        <v>79.0</v>
+      </c>
+      <c r="F864" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G864" s="6">
+        <v>999.0</v>
+      </c>
+      <c r="H864" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="I864" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="J864" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K864" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L864" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="M864" s="4"/>
+      <c r="N864" s="4"/>
+      <c r="O864" s="4"/>
+      <c r="P864" s="4"/>
+      <c r="Q864" s="4"/>
+      <c r="R864" s="4"/>
+      <c r="S864" s="4"/>
+      <c r="T864" s="4"/>
+      <c r="U864" s="4"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B865" s="4" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C865" s="5">
+        <v>45561.6934877558</v>
+      </c>
+      <c r="D865" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E865" s="6">
+        <v>132.0</v>
+      </c>
+      <c r="F865" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G865" s="6">
+        <v>200000.0</v>
+      </c>
+      <c r="H865" s="4" t="s">
+        <v>3089</v>
+      </c>
+      <c r="I865" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J865" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K865" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L865" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="M865" s="4"/>
+      <c r="N865" s="4"/>
+      <c r="O865" s="4"/>
+      <c r="P865" s="4"/>
+      <c r="Q865" s="4"/>
+      <c r="R865" s="4"/>
+      <c r="S865" s="4"/>
+      <c r="T865" s="4"/>
+      <c r="U865" s="4"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B866" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C866" s="5">
+        <v>45569.69348775593</v>
+      </c>
+      <c r="D866" s="4" t="s">
+        <v>3093</v>
+      </c>
+      <c r="E866" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="F866" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G866" s="6">
+        <v>33200.0</v>
+      </c>
+      <c r="H866" s="4" t="s">
+        <v>3094</v>
+      </c>
+      <c r="I866" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="J866" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K866" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L866" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M866" s="4"/>
+      <c r="N866" s="4"/>
+      <c r="O866" s="4"/>
+      <c r="P866" s="4"/>
+      <c r="Q866" s="4"/>
+      <c r="R866" s="4"/>
+      <c r="S866" s="4"/>
+      <c r="T866" s="4"/>
+      <c r="U866" s="4"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B867" s="4" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C867" s="5">
+        <v>45569.69348775603</v>
+      </c>
+      <c r="D867" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E867" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="F867" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G867" s="6">
+        <v>1004.0</v>
+      </c>
+      <c r="H867" s="4" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I867" s="4" t="s">
+        <v>3098</v>
+      </c>
+      <c r="J867" s="4" t="s">
+        <v>3099</v>
+      </c>
+      <c r="K867" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L867" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M867" s="4"/>
+      <c r="N867" s="4"/>
+      <c r="O867" s="4"/>
+      <c r="P867" s="4"/>
+      <c r="Q867" s="4"/>
+      <c r="R867" s="4"/>
+      <c r="S867" s="4"/>
+      <c r="T867" s="4"/>
+      <c r="U867" s="4"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B868" s="4" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C868" s="5">
+        <v>45569.69348775614</v>
+      </c>
+      <c r="D868" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E868" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="F868" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G868" s="6">
+        <v>148000.0</v>
+      </c>
+      <c r="H868" s="4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="I868" s="4" t="s">
+        <v>3102</v>
+      </c>
+      <c r="J868" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K868" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L868" s="4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="M868" s="4"/>
+      <c r="N868" s="4"/>
+      <c r="O868" s="4"/>
+      <c r="P868" s="4"/>
+      <c r="Q868" s="4"/>
+      <c r="R868" s="4"/>
+      <c r="S868" s="4"/>
+      <c r="T868" s="4"/>
+      <c r="U868" s="4"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C869" s="5">
+        <v>45559.69348775624</v>
+      </c>
+      <c r="D869" s="4" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E869" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F869" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G869" s="6">
+        <v>275000.0</v>
+      </c>
+      <c r="H869" s="4" t="s">
+        <v>3106</v>
+      </c>
+      <c r="I869" s="4" t="s">
+        <v>3107</v>
+      </c>
+      <c r="J869" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K869" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L869" s="4" t="s">
+        <v>3108</v>
+      </c>
+      <c r="M869" s="4"/>
+      <c r="N869" s="4"/>
+      <c r="O869" s="4"/>
+      <c r="P869" s="4"/>
+      <c r="Q869" s="4"/>
+      <c r="R869" s="4"/>
+      <c r="S869" s="4"/>
+      <c r="T869" s="4"/>
+      <c r="U869" s="4"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C870" s="5">
+        <v>45569.44348775635</v>
+      </c>
+      <c r="D870" s="4" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E870" s="6">
+        <v>1514.0</v>
+      </c>
+      <c r="F870" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="G870" s="6">
+        <v>111111.0</v>
+      </c>
+      <c r="H870" s="4" t="s">
+        <v>3111</v>
+      </c>
+      <c r="I870" s="4" t="s">
+        <v>3112</v>
+      </c>
+      <c r="J870" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K870" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L870" s="4" t="s">
+        <v>3113</v>
+      </c>
+      <c r="M870" s="4"/>
+      <c r="N870" s="4"/>
+      <c r="O870" s="4"/>
+      <c r="P870" s="4"/>
+      <c r="Q870" s="4"/>
+      <c r="R870" s="4"/>
+      <c r="S870" s="4"/>
+      <c r="T870" s="4"/>
+      <c r="U870" s="4"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B871" s="4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C871" s="5">
+        <v>45553.69348775651</v>
+      </c>
+      <c r="D871" s="4" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E871" s="6">
+        <v>564.0</v>
+      </c>
+      <c r="F871" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="G871" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H871" s="4" t="s">
+        <v>3116</v>
+      </c>
+      <c r="I871" s="4" t="s">
+        <v>3117</v>
+      </c>
+      <c r="J871" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K871" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L871" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M871" s="4"/>
+      <c r="N871" s="4"/>
+      <c r="O871" s="4"/>
+      <c r="P871" s="4"/>
+      <c r="Q871" s="4"/>
+      <c r="R871" s="4"/>
+      <c r="S871" s="4"/>
+      <c r="T871" s="4"/>
+      <c r="U871" s="4"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C872" s="5">
+        <v>45569.69348775665</v>
+      </c>
+      <c r="D872" s="4" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E872" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="F872" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G872" s="6">
+        <v>50000.0</v>
+      </c>
+      <c r="H872" s="4" t="s">
+        <v>3120</v>
+      </c>
+      <c r="I872" s="4" t="s">
+        <v>3121</v>
+      </c>
+      <c r="J872" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K872" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L872" s="4" t="s">
+        <v>3122</v>
+      </c>
+      <c r="M872" s="4"/>
+      <c r="N872" s="4"/>
+      <c r="O872" s="4"/>
+      <c r="P872" s="4"/>
+      <c r="Q872" s="4"/>
+      <c r="R872" s="4"/>
+      <c r="S872" s="4"/>
+      <c r="T872" s="4"/>
+      <c r="U872" s="4"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C873" s="5">
+        <v>45568.90182109008</v>
+      </c>
+      <c r="D873" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E873" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="F873" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G873" s="6">
+        <v>630000.0</v>
+      </c>
+      <c r="H873" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I873" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="J873" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K873" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L873" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M873" s="4"/>
+      <c r="N873" s="4"/>
+      <c r="O873" s="4"/>
+      <c r="P873" s="4"/>
+      <c r="Q873" s="4"/>
+      <c r="R873" s="4"/>
+      <c r="S873" s="4"/>
+      <c r="T873" s="4"/>
+      <c r="U873" s="4"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B874" s="4" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C874" s="5">
+        <v>45568.69348775691</v>
+      </c>
+      <c r="D874" s="4" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E874" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="F874" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G874" s="6">
+        <v>1004.0</v>
+      </c>
+      <c r="H874" s="4" t="s">
+        <v>3125</v>
+      </c>
+      <c r="I874" s="4" t="s">
+        <v>3126</v>
+      </c>
+      <c r="J874" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="K874" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L874" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M874" s="4"/>
+      <c r="N874" s="4"/>
+      <c r="O874" s="4"/>
+      <c r="P874" s="4"/>
+      <c r="Q874" s="4"/>
+      <c r="R874" s="4"/>
+      <c r="S874" s="4"/>
+      <c r="T874" s="4"/>
+      <c r="U874" s="4"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C875" s="5">
+        <v>45568.69348775706</v>
+      </c>
+      <c r="D875" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E875" s="6">
+        <v>125.0</v>
+      </c>
+      <c r="F875" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G875" s="6">
+        <v>200000.0</v>
+      </c>
+      <c r="H875" s="4" t="s">
+        <v>3128</v>
+      </c>
+      <c r="I875" s="4" t="s">
+        <v>3129</v>
+      </c>
+      <c r="J875" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K875" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L875" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M875" s="4"/>
+      <c r="N875" s="4"/>
+      <c r="O875" s="4"/>
+      <c r="P875" s="4"/>
+      <c r="Q875" s="4"/>
+      <c r="R875" s="4"/>
+      <c r="S875" s="4"/>
+      <c r="T875" s="4"/>
+      <c r="U875" s="4"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C876" s="5">
+        <v>45560.6934877572</v>
+      </c>
+      <c r="D876" s="4" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E876" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="F876" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G876" s="6">
+        <v>2850000.0</v>
+      </c>
+      <c r="H876" s="4" t="s">
+        <v>3132</v>
+      </c>
+      <c r="I876" s="4" t="s">
+        <v>3133</v>
+      </c>
+      <c r="J876" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K876" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L876" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M876" s="4"/>
+      <c r="N876" s="4"/>
+      <c r="O876" s="4"/>
+      <c r="P876" s="4"/>
+      <c r="Q876" s="4"/>
+      <c r="R876" s="4"/>
+      <c r="S876" s="4"/>
+      <c r="T876" s="4"/>
+      <c r="U876" s="4"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B877" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C877" s="5">
+        <v>45569.36015442399</v>
+      </c>
+      <c r="D877" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E877" s="6">
+        <v>1551.0</v>
+      </c>
+      <c r="F877" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G877" s="6">
+        <v>30000.0</v>
+      </c>
+      <c r="H877" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="I877" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="J877" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K877" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L877" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="M877" s="4"/>
+      <c r="N877" s="4"/>
+      <c r="O877" s="4"/>
+      <c r="P877" s="4"/>
+      <c r="Q877" s="4"/>
+      <c r="R877" s="4"/>
+      <c r="S877" s="4"/>
+      <c r="T877" s="4"/>
+      <c r="U877" s="4"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B878" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C878" s="5">
+        <v>45556.69348775749</v>
+      </c>
+      <c r="D878" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E878" s="6">
+        <v>659.0</v>
+      </c>
+      <c r="F878" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G878" s="6">
+        <v>120000.0</v>
+      </c>
+      <c r="H878" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="I878" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="J878" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K878" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L878" s="4" t="s">
+        <v>3138</v>
+      </c>
+      <c r="M878" s="4"/>
+      <c r="N878" s="4"/>
+      <c r="O878" s="4"/>
+      <c r="P878" s="4"/>
+      <c r="Q878" s="4"/>
+      <c r="R878" s="4"/>
+      <c r="S878" s="4"/>
+      <c r="T878" s="4"/>
+      <c r="U878" s="4"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B879" s="4" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C879" s="5">
+        <v>45569.69348775761</v>
+      </c>
+      <c r="D879" s="4" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E879" s="6">
+        <v>355.0</v>
+      </c>
+      <c r="F879" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="G879" s="6">
+        <v>155000.0</v>
+      </c>
+      <c r="H879" s="4" t="s">
+        <v>3141</v>
+      </c>
+      <c r="I879" s="4" t="s">
+        <v>3142</v>
+      </c>
+      <c r="J879" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K879" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L879" s="4" t="s">
+        <v>3143</v>
+      </c>
+      <c r="M879" s="4"/>
+      <c r="N879" s="4"/>
+      <c r="O879" s="4"/>
+      <c r="P879" s="4"/>
+      <c r="Q879" s="4"/>
+      <c r="R879" s="4"/>
+      <c r="S879" s="4"/>
+      <c r="T879" s="4"/>
+      <c r="U879" s="4"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C880" s="5">
+        <v>45568.98515442446</v>
+      </c>
+      <c r="D880" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E880" s="6">
+        <v>179.0</v>
+      </c>
+      <c r="F880" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="G880" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H880" s="4" t="s">
+        <v>3146</v>
+      </c>
+      <c r="I880" s="4" t="s">
+        <v>3147</v>
+      </c>
+      <c r="J880" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K880" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L880" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="M880" s="4"/>
+      <c r="N880" s="4"/>
+      <c r="O880" s="4"/>
+      <c r="P880" s="4"/>
+      <c r="Q880" s="4"/>
+      <c r="R880" s="4"/>
+      <c r="S880" s="4"/>
+      <c r="T880" s="4"/>
+      <c r="U880" s="4"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C881" s="5">
+        <v>45569.69348775795</v>
+      </c>
+      <c r="D881" s="4" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E881" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="F881" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G881" s="6">
+        <v>75000.0</v>
+      </c>
+      <c r="H881" s="4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="I881" s="4" t="s">
+        <v>3151</v>
+      </c>
+      <c r="J881" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K881" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L881" s="4" t="s">
+        <v>3152</v>
+      </c>
+      <c r="M881" s="4"/>
+      <c r="N881" s="4"/>
+      <c r="O881" s="4"/>
+      <c r="P881" s="4"/>
+      <c r="Q881" s="4"/>
+      <c r="R881" s="4"/>
+      <c r="S881" s="4"/>
+      <c r="T881" s="4"/>
+      <c r="U881" s="4"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C882" s="5">
+        <v>45569.69348775804</v>
+      </c>
+      <c r="D882" s="4" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E882" s="6">
+        <v>179.0</v>
+      </c>
+      <c r="F882" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G882" s="6">
+        <v>800000.0</v>
+      </c>
+      <c r="H882" s="4" t="s">
+        <v>3155</v>
+      </c>
+      <c r="I882" s="4" t="s">
+        <v>3156</v>
+      </c>
+      <c r="J882" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K882" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L882" s="4" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M882" s="4"/>
+      <c r="N882" s="4"/>
+      <c r="O882" s="4"/>
+      <c r="P882" s="4"/>
+      <c r="Q882" s="4"/>
+      <c r="R882" s="4"/>
+      <c r="S882" s="4"/>
+      <c r="T882" s="4"/>
+      <c r="U882" s="4"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C883" s="5">
+        <v>45569.69348775814</v>
+      </c>
+      <c r="D883" s="4" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E883" s="6">
+        <v>58.0</v>
+      </c>
+      <c r="F883" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G883" s="6">
+        <v>150000.0</v>
+      </c>
+      <c r="H883" s="4" t="s">
+        <v>3160</v>
+      </c>
+      <c r="I883" s="4" t="s">
+        <v>3161</v>
+      </c>
+      <c r="J883" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K883" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L883" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M883" s="4"/>
+      <c r="N883" s="4"/>
+      <c r="O883" s="4"/>
+      <c r="P883" s="4"/>
+      <c r="Q883" s="4"/>
+      <c r="R883" s="4"/>
+      <c r="S883" s="4"/>
+      <c r="T883" s="4"/>
+      <c r="U883" s="4"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B884" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C884" s="5">
+        <v>45567.69348775823</v>
+      </c>
+      <c r="D884" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="E884" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="F884" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G884" s="6">
+        <v>120000.0</v>
+      </c>
+      <c r="H884" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="I884" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="J884" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K884" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L884" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M884" s="4"/>
+      <c r="N884" s="4"/>
+      <c r="O884" s="4"/>
+      <c r="P884" s="4"/>
+      <c r="Q884" s="4"/>
+      <c r="R884" s="4"/>
+      <c r="S884" s="4"/>
+      <c r="T884" s="4"/>
+      <c r="U884" s="4"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B885" s="4" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C885" s="5">
+        <v>45569.6566822028</v>
+      </c>
+      <c r="D885" s="4" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E885" s="6">
+        <v>354.0</v>
+      </c>
+      <c r="F885" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G885" s="6">
+        <v>370000.0</v>
+      </c>
+      <c r="H885" s="4" t="s">
+        <v>3164</v>
+      </c>
+      <c r="I885" s="4" t="s">
+        <v>3165</v>
+      </c>
+      <c r="J885" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K885" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L885" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="M885" s="4"/>
+      <c r="N885" s="4"/>
+      <c r="O885" s="4"/>
+      <c r="P885" s="4"/>
+      <c r="Q885" s="4"/>
+      <c r="R885" s="4"/>
+      <c r="S885" s="4"/>
+      <c r="T885" s="4"/>
+      <c r="U885" s="4"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B886" s="4" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C886" s="5">
+        <v>45569.69348775852</v>
+      </c>
+      <c r="D886" s="4" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E886" s="6">
+        <v>48.0</v>
+      </c>
+      <c r="F886" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G886" s="6">
+        <v>35000.0</v>
+      </c>
+      <c r="H886" s="4" t="s">
+        <v>3168</v>
+      </c>
+      <c r="I886" s="4" t="s">
+        <v>3169</v>
+      </c>
+      <c r="J886" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K886" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L886" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M886" s="4"/>
+      <c r="N886" s="4"/>
+      <c r="O886" s="4"/>
+      <c r="P886" s="4"/>
+      <c r="Q886" s="4"/>
+      <c r="R886" s="4"/>
+      <c r="S886" s="4"/>
+      <c r="T886" s="4"/>
+      <c r="U886" s="4"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B887" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C887" s="5">
+        <v>45562.69348775861</v>
+      </c>
+      <c r="D887" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E887" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F887" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G887" s="6">
+        <v>13000.0</v>
+      </c>
+      <c r="H887" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I887" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J887" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="K887" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L887" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M887" s="4"/>
+      <c r="N887" s="4"/>
+      <c r="O887" s="4"/>
+      <c r="P887" s="4"/>
+      <c r="Q887" s="4"/>
+      <c r="R887" s="4"/>
+      <c r="S887" s="4"/>
+      <c r="T887" s="4"/>
+      <c r="U887" s="4"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B888" s="4" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C888" s="5">
+        <v>45568.90182109207</v>
+      </c>
+      <c r="D888" s="4" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E888" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="F888" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G888" s="6">
+        <v>400000.0</v>
+      </c>
+      <c r="H888" s="4" t="s">
+        <v>3172</v>
+      </c>
+      <c r="I888" s="4" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J888" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K888" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L888" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M888" s="4"/>
+      <c r="N888" s="4"/>
+      <c r="O888" s="4"/>
+      <c r="P888" s="4"/>
+      <c r="Q888" s="4"/>
+      <c r="R888" s="4"/>
+      <c r="S888" s="4"/>
+      <c r="T888" s="4"/>
+      <c r="U888" s="4"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C889" s="5">
+        <v>45568.69348775888</v>
+      </c>
+      <c r="D889" s="4" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E889" s="6">
+        <v>136.0</v>
+      </c>
+      <c r="F889" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G889" s="6">
+        <v>50000.0</v>
+      </c>
+      <c r="H889" s="4" t="s">
+        <v>3176</v>
+      </c>
+      <c r="I889" s="4" t="s">
+        <v>3177</v>
+      </c>
+      <c r="J889" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K889" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L889" s="4" t="s">
+        <v>3178</v>
+      </c>
+      <c r="M889" s="4"/>
+      <c r="N889" s="4"/>
+      <c r="O889" s="4"/>
+      <c r="P889" s="4"/>
+      <c r="Q889" s="4"/>
+      <c r="R889" s="4"/>
+      <c r="S889" s="4"/>
+      <c r="T889" s="4"/>
+      <c r="U889" s="4"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C890" s="5">
+        <v>45563.693487759</v>
+      </c>
+      <c r="D890" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E890" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="F890" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G890" s="6">
+        <v>100000.0</v>
+      </c>
+      <c r="H890" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I890" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J890" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K890" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L890" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M890" s="4"/>
+      <c r="N890" s="4"/>
+      <c r="O890" s="4"/>
+      <c r="P890" s="4"/>
+      <c r="Q890" s="4"/>
+      <c r="R890" s="4"/>
+      <c r="S890" s="4"/>
+      <c r="T890" s="4"/>
+      <c r="U890" s="4"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B891" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C891" s="5">
+        <v>45568.69348775911</v>
+      </c>
+      <c r="D891" s="4" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E891" s="6">
+        <v>2998.0</v>
+      </c>
+      <c r="F891" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="G891" s="6">
+        <v>278000.0</v>
+      </c>
+      <c r="H891" s="4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="I891" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="J891" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K891" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L891" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="M891" s="4"/>
+      <c r="N891" s="4"/>
+      <c r="O891" s="4"/>
+      <c r="P891" s="4"/>
+      <c r="Q891" s="4"/>
+      <c r="R891" s="4"/>
+      <c r="S891" s="4"/>
+      <c r="T891" s="4"/>
+      <c r="U891" s="4"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C892" s="5">
+        <v>45563.69348775926</v>
+      </c>
+      <c r="D892" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E892" s="6">
+        <v>58.0</v>
+      </c>
+      <c r="F892" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G892" s="6">
+        <v>259000.0</v>
+      </c>
+      <c r="H892" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I892" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J892" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K892" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L892" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M892" s="4"/>
+      <c r="N892" s="4"/>
+      <c r="O892" s="4"/>
+      <c r="P892" s="4"/>
+      <c r="Q892" s="4"/>
+      <c r="R892" s="4"/>
+      <c r="S892" s="4"/>
+      <c r="T892" s="4"/>
+      <c r="U892" s="4"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B893" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C893" s="5">
+        <v>45566.69348775939</v>
+      </c>
+      <c r="D893" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E893" s="6">
+        <v>1035.0</v>
+      </c>
+      <c r="F893" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="G893" s="6">
+        <v>35000.0</v>
+      </c>
+      <c r="H893" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I893" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J893" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K893" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L893" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M893" s="4"/>
+      <c r="N893" s="4"/>
+      <c r="O893" s="4"/>
+      <c r="P893" s="4"/>
+      <c r="Q893" s="4"/>
+      <c r="R893" s="4"/>
+      <c r="S893" s="4"/>
+      <c r="T893" s="4"/>
+      <c r="U893" s="4"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C894" s="5">
+        <v>45563.69348775955</v>
+      </c>
+      <c r="D894" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E894" s="6">
+        <v>82.0</v>
+      </c>
+      <c r="F894" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G894" s="6">
+        <v>390000.0</v>
+      </c>
+      <c r="H894" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I894" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J894" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K894" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L894" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M894" s="4"/>
+      <c r="N894" s="4"/>
+      <c r="O894" s="4"/>
+      <c r="P894" s="4"/>
+      <c r="Q894" s="4"/>
+      <c r="R894" s="4"/>
+      <c r="S894" s="4"/>
+      <c r="T894" s="4"/>
+      <c r="U894" s="4"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B895" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C895" s="5">
+        <v>45569.40182109302</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E895" s="6">
+        <v>192.0</v>
+      </c>
+      <c r="F895" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G895" s="6">
+        <v>450000.0</v>
+      </c>
+      <c r="H895" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="I895" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="J895" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K895" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L895" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M895" s="4"/>
+      <c r="N895" s="4"/>
+      <c r="O895" s="4"/>
+      <c r="P895" s="4"/>
+      <c r="Q895" s="4"/>
+      <c r="R895" s="4"/>
+      <c r="S895" s="4"/>
+      <c r="T895" s="4"/>
+      <c r="U895" s="4"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B896" s="4" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C896" s="5">
+        <v>45569.69348775983</v>
+      </c>
+      <c r="D896" s="4" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E896" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="F896" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G896" s="6">
+        <v>1111.0</v>
+      </c>
+      <c r="H896" s="4" t="s">
+        <v>3183</v>
+      </c>
+      <c r="I896" s="4" t="s">
+        <v>3184</v>
+      </c>
+      <c r="J896" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="K896" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L896" s="4" t="s">
+        <v>3185</v>
+      </c>
+      <c r="M896" s="4"/>
+      <c r="N896" s="4"/>
+      <c r="O896" s="4"/>
+      <c r="P896" s="4"/>
+      <c r="Q896" s="4"/>
+      <c r="R896" s="4"/>
+      <c r="S896" s="4"/>
+      <c r="T896" s="4"/>
+      <c r="U896" s="4"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B897" s="4" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C897" s="5">
+        <v>45554.69348775994</v>
+      </c>
+      <c r="D897" s="4" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E897" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="F897" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G897" s="6">
+        <v>90000.0</v>
+      </c>
+      <c r="H897" s="4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="I897" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="J897" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K897" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L897" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M897" s="4"/>
+      <c r="N897" s="4"/>
+      <c r="O897" s="4"/>
+      <c r="P897" s="4"/>
+      <c r="Q897" s="4"/>
+      <c r="R897" s="4"/>
+      <c r="S897" s="4"/>
+      <c r="T897" s="4"/>
+      <c r="U897" s="4"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C898" s="5">
+        <v>45569.69348776007</v>
+      </c>
+      <c r="D898" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E898" s="6">
+        <v>67.0</v>
+      </c>
+      <c r="F898" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G898" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H898" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="I898" s="4" t="s">
+        <v>3193</v>
+      </c>
+      <c r="J898" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K898" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L898" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M898" s="4"/>
+      <c r="N898" s="4"/>
+      <c r="O898" s="4"/>
+      <c r="P898" s="4"/>
+      <c r="Q898" s="4"/>
+      <c r="R898" s="4"/>
+      <c r="S898" s="4"/>
+      <c r="T898" s="4"/>
+      <c r="U898" s="4"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B899" s="4" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C899" s="5">
+        <v>45569.69348776017</v>
+      </c>
+      <c r="D899" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E899" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="F899" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G899" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H899" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="I899" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="J899" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K899" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L899" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M899" s="4"/>
+      <c r="N899" s="4"/>
+      <c r="O899" s="4"/>
+      <c r="P899" s="4"/>
+      <c r="Q899" s="4"/>
+      <c r="R899" s="4"/>
+      <c r="S899" s="4"/>
+      <c r="T899" s="4"/>
+      <c r="U899" s="4"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C900" s="5">
+        <v>45565.69348776028</v>
+      </c>
+      <c r="D900" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E900" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="F900" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G900" s="6">
+        <v>120000.0</v>
+      </c>
+      <c r="H900" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I900" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J900" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K900" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L900" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M900" s="4"/>
+      <c r="N900" s="4"/>
+      <c r="O900" s="4"/>
+      <c r="P900" s="4"/>
+      <c r="Q900" s="4"/>
+      <c r="R900" s="4"/>
+      <c r="S900" s="4"/>
+      <c r="T900" s="4"/>
+      <c r="U900" s="4"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B901" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C901" s="5">
+        <v>45568.69348776041</v>
+      </c>
+      <c r="D901" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="E901" s="6">
+        <v>644.0</v>
+      </c>
+      <c r="F901" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G901" s="6">
+        <v>490000.0</v>
+      </c>
+      <c r="H901" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="I901" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="J901" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K901" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L901" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M901" s="4"/>
+      <c r="N901" s="4"/>
+      <c r="O901" s="4"/>
+      <c r="P901" s="4"/>
+      <c r="Q901" s="4"/>
+      <c r="R901" s="4"/>
+      <c r="S901" s="4"/>
+      <c r="T901" s="4"/>
+      <c r="U901" s="4"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C902" s="5">
+        <v>45567.69348776064</v>
+      </c>
+      <c r="D902" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="E902" s="6">
+        <v>63.0</v>
+      </c>
+      <c r="F902" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G902" s="6">
+        <v>7500.0</v>
+      </c>
+      <c r="H902" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="I902" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J902" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="K902" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L902" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M902" s="4"/>
+      <c r="N902" s="4"/>
+      <c r="O902" s="4"/>
+      <c r="P902" s="4"/>
+      <c r="Q902" s="4"/>
+      <c r="R902" s="4"/>
+      <c r="S902" s="4"/>
+      <c r="T902" s="4"/>
+      <c r="U902" s="4"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C903" s="5">
+        <v>45566.69348776079</v>
+      </c>
+      <c r="D903" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E903" s="6">
+        <v>1963.0</v>
+      </c>
+      <c r="F903" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="G903" s="6">
+        <v>70000.0</v>
+      </c>
+      <c r="H903" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I903" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J903" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K903" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L903" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="M903" s="4"/>
+      <c r="N903" s="4"/>
+      <c r="O903" s="4"/>
+      <c r="P903" s="4"/>
+      <c r="Q903" s="4"/>
+      <c r="R903" s="4"/>
+      <c r="S903" s="4"/>
+      <c r="T903" s="4"/>
+      <c r="U903" s="4"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C904" s="5">
+        <v>45564.69348776092</v>
+      </c>
+      <c r="D904" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E904" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="F904" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G904" s="6">
+        <v>45000.0</v>
+      </c>
+      <c r="H904" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I904" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J904" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K904" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L904" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M904" s="4"/>
+      <c r="N904" s="4"/>
+      <c r="O904" s="4"/>
+      <c r="P904" s="4"/>
+      <c r="Q904" s="4"/>
+      <c r="R904" s="4"/>
+      <c r="S904" s="4"/>
+      <c r="T904" s="4"/>
+      <c r="U904" s="4"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C905" s="5">
+        <v>45568.98515442771</v>
+      </c>
+      <c r="D905" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E905" s="6">
+        <v>253.0</v>
+      </c>
+      <c r="F905" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G905" s="6">
+        <v>550000.0</v>
+      </c>
+      <c r="H905" s="4" t="s">
+        <v>3197</v>
+      </c>
+      <c r="I905" s="4" t="s">
+        <v>3198</v>
+      </c>
+      <c r="J905" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K905" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L905" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M905" s="4"/>
+      <c r="N905" s="4"/>
+      <c r="O905" s="4"/>
+      <c r="P905" s="4"/>
+      <c r="Q905" s="4"/>
+      <c r="R905" s="4"/>
+      <c r="S905" s="4"/>
+      <c r="T905" s="4"/>
+      <c r="U905" s="4"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C906" s="5">
+        <v>45569.4434877612</v>
+      </c>
+      <c r="D906" s="4" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E906" s="6">
+        <v>44.0</v>
+      </c>
+      <c r="F906" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G906" s="6">
+        <v>11111.0</v>
+      </c>
+      <c r="H906" s="4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="I906" s="4" t="s">
+        <v>3202</v>
+      </c>
+      <c r="J906" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K906" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L906" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M906" s="4"/>
+      <c r="N906" s="4"/>
+      <c r="O906" s="4"/>
+      <c r="P906" s="4"/>
+      <c r="Q906" s="4"/>
+      <c r="R906" s="4"/>
+      <c r="S906" s="4"/>
+      <c r="T906" s="4"/>
+      <c r="U906" s="4"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C907" s="5">
+        <v>45569.69348776135</v>
+      </c>
+      <c r="D907" s="4" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E907" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="F907" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G907" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H907" s="4" t="s">
+        <v>3204</v>
+      </c>
+      <c r="I907" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="J907" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K907" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L907" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M907" s="4"/>
+      <c r="N907" s="4"/>
+      <c r="O907" s="4"/>
+      <c r="P907" s="4"/>
+      <c r="Q907" s="4"/>
+      <c r="R907" s="4"/>
+      <c r="S907" s="4"/>
+      <c r="T907" s="4"/>
+      <c r="U907" s="4"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C908" s="5">
+        <v>45561.69348776145</v>
+      </c>
+      <c r="D908" s="4" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E908" s="6">
+        <v>2766.0</v>
+      </c>
+      <c r="F908" s="6">
+        <v>63.0</v>
+      </c>
+      <c r="G908" s="6">
+        <v>310000.0</v>
+      </c>
+      <c r="H908" s="4" t="s">
+        <v>3207</v>
+      </c>
+      <c r="I908" s="4" t="s">
+        <v>3208</v>
+      </c>
+      <c r="J908" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K908" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L908" s="4" t="s">
+        <v>3209</v>
+      </c>
+      <c r="M908" s="4"/>
+      <c r="N908" s="4"/>
+      <c r="O908" s="4"/>
+      <c r="P908" s="4"/>
+      <c r="Q908" s="4"/>
+      <c r="R908" s="4"/>
+      <c r="S908" s="4"/>
+      <c r="T908" s="4"/>
+      <c r="U908" s="4"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C909" s="5">
+        <v>45568.69348776168</v>
+      </c>
+      <c r="D909" s="4" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E909" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="F909" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G909" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="H909" s="4" t="s">
+        <v>3212</v>
+      </c>
+      <c r="I909" s="4" t="s">
+        <v>3213</v>
+      </c>
+      <c r="J909" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K909" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L909" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M909" s="4"/>
+      <c r="N909" s="4"/>
+      <c r="O909" s="4"/>
+      <c r="P909" s="4"/>
+      <c r="Q909" s="4"/>
+      <c r="R909" s="4"/>
+      <c r="S909" s="4"/>
+      <c r="T909" s="4"/>
+      <c r="U909" s="4"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C910" s="5">
+        <v>45568.69348776183</v>
+      </c>
+      <c r="D910" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E910" s="6">
+        <v>765.0</v>
+      </c>
+      <c r="F910" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="G910" s="6">
+        <v>10000.0</v>
+      </c>
+      <c r="H910" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I910" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J910" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K910" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L910" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="M910" s="4"/>
+      <c r="N910" s="4"/>
+      <c r="O910" s="4"/>
+      <c r="P910" s="4"/>
+      <c r="Q910" s="4"/>
+      <c r="R910" s="4"/>
+      <c r="S910" s="4"/>
+      <c r="T910" s="4"/>
+      <c r="U910" s="4"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C911" s="5">
+        <v>45565.69348776196</v>
+      </c>
+      <c r="D911" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="E911" s="6">
+        <v>1068.0</v>
+      </c>
+      <c r="F911" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="G911" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="H911" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="I911" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="J911" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="K911" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L911" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="M911" s="4"/>
+      <c r="N911" s="4"/>
+      <c r="O911" s="4"/>
+      <c r="P911" s="4"/>
+      <c r="Q911" s="4"/>
+      <c r="R911" s="4"/>
+      <c r="S911" s="4"/>
+      <c r="T911" s="4"/>
+      <c r="U911" s="4"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C912" s="5">
+        <v>45560.69348776208</v>
+      </c>
+      <c r="D912" s="4" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E912" s="6">
+        <v>41.0</v>
+      </c>
+      <c r="F912" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G912" s="6">
+        <v>30000.0</v>
+      </c>
+      <c r="H912" s="4" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I912" s="4" t="s">
+        <v>3217</v>
+      </c>
+      <c r="J912" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K912" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L912" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M912" s="4"/>
+      <c r="N912" s="4"/>
+      <c r="O912" s="4"/>
+      <c r="P912" s="4"/>
+      <c r="Q912" s="4"/>
+      <c r="R912" s="4"/>
+      <c r="S912" s="4"/>
+      <c r="T912" s="4"/>
+      <c r="U912" s="4"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C913" s="5">
+        <v>45569.52682109553</v>
+      </c>
+      <c r="D913" s="4" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E913" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="F913" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G913" s="6">
+        <v>20000.0</v>
+      </c>
+      <c r="H913" s="4" t="s">
+        <v>3220</v>
+      </c>
+      <c r="I913" s="4" t="s">
+        <v>3221</v>
+      </c>
+      <c r="J913" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K913" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L913" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M913" s="4"/>
+      <c r="N913" s="4"/>
+      <c r="O913" s="4"/>
+      <c r="P913" s="4"/>
+      <c r="Q913" s="4"/>
+      <c r="R913" s="4"/>
+      <c r="S913" s="4"/>
+      <c r="T913" s="4"/>
+      <c r="U913" s="4"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C914" s="5">
+        <v>45558.69348776236</v>
+      </c>
+      <c r="D914" s="4" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E914" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="F914" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G914" s="6">
+        <v>1111111.0</v>
+      </c>
+      <c r="H914" s="4" t="s">
+        <v>3224</v>
+      </c>
+      <c r="I914" s="4" t="s">
+        <v>3225</v>
+      </c>
+      <c r="J914" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K914" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L914" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M914" s="4"/>
+      <c r="N914" s="4"/>
+      <c r="O914" s="4"/>
+      <c r="P914" s="4"/>
+      <c r="Q914" s="4"/>
+      <c r="R914" s="4"/>
+      <c r="S914" s="4"/>
+      <c r="T914" s="4"/>
+      <c r="U914" s="4"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C915" s="5">
+        <v>45569.4434877625</v>
+      </c>
+      <c r="D915" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E915" s="6">
+        <v>983.0</v>
+      </c>
+      <c r="F915" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G915" s="6">
+        <v>72530.0</v>
+      </c>
+      <c r="H915" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="I915" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="J915" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K915" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L915" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="M915" s="4"/>
+      <c r="N915" s="4"/>
+      <c r="O915" s="4"/>
+      <c r="P915" s="4"/>
+      <c r="Q915" s="4"/>
+      <c r="R915" s="4"/>
+      <c r="S915" s="4"/>
+      <c r="T915" s="4"/>
+      <c r="U915" s="4"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C916" s="5">
+        <v>45569.69348776265</v>
+      </c>
+      <c r="D916" s="4" t="s">
+        <v>3227</v>
+      </c>
+      <c r="E916" s="6">
+        <v>112.0</v>
+      </c>
+      <c r="F916" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G916" s="6">
+        <v>500000.0</v>
+      </c>
+      <c r="H916" s="4" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I916" s="4" t="s">
+        <v>3229</v>
+      </c>
+      <c r="J916" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K916" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L916" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M916" s="4"/>
+      <c r="N916" s="4"/>
+      <c r="O916" s="4"/>
+      <c r="P916" s="4"/>
+      <c r="Q916" s="4"/>
+      <c r="R916" s="4"/>
+      <c r="S916" s="4"/>
+      <c r="T916" s="4"/>
+      <c r="U916" s="4"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B917" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C917" s="5">
+        <v>45569.06848776276</v>
+      </c>
+      <c r="D917" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E917" s="6">
+        <v>57.0</v>
+      </c>
+      <c r="F917" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G917" s="6">
+        <v>3000.0</v>
+      </c>
+      <c r="H917" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="I917" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="J917" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="K917" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L917" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M917" s="4"/>
+      <c r="N917" s="4"/>
+      <c r="O917" s="4"/>
+      <c r="P917" s="4"/>
+      <c r="Q917" s="4"/>
+      <c r="R917" s="4"/>
+      <c r="S917" s="4"/>
+      <c r="T917" s="4"/>
+      <c r="U917" s="4"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C918" s="5">
+        <v>45563.6934877629</v>
+      </c>
+      <c r="D918" s="4" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E918" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="F918" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G918" s="6">
+        <v>200000.0</v>
+      </c>
+      <c r="H918" s="4" t="s">
+        <v>3232</v>
+      </c>
+      <c r="I918" s="4" t="s">
+        <v>3233</v>
+      </c>
+      <c r="J918" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K918" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L918" s="4" t="s">
+        <v>3234</v>
+      </c>
+      <c r="M918" s="4"/>
+      <c r="N918" s="4"/>
+      <c r="O918" s="4"/>
+      <c r="P918" s="4"/>
+      <c r="Q918" s="4"/>
+      <c r="R918" s="4"/>
+      <c r="S918" s="4"/>
+      <c r="T918" s="4"/>
+      <c r="U918" s="4"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C919" s="5">
+        <v>45566.69348776302</v>
+      </c>
+      <c r="D919" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E919" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F919" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G919" s="6">
+        <v>260000.0</v>
+      </c>
+      <c r="H919" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I919" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J919" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K919" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L919" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M919" s="4"/>
+      <c r="N919" s="4"/>
+      <c r="O919" s="4"/>
+      <c r="P919" s="4"/>
+      <c r="Q919" s="4"/>
+      <c r="R919" s="4"/>
+      <c r="S919" s="4"/>
+      <c r="T919" s="4"/>
+      <c r="U919" s="4"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B920" s="4" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C920" s="5">
+        <v>45568.69348776314</v>
+      </c>
+      <c r="D920" s="4" t="s">
+        <v>3236</v>
+      </c>
+      <c r="E920" s="6">
+        <v>91.0</v>
+      </c>
+      <c r="F920" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G920" s="6">
+        <v>410000.0</v>
+      </c>
+      <c r="H920" s="4" t="s">
+        <v>3237</v>
+      </c>
+      <c r="I920" s="4" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J920" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K920" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L920" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M920" s="4"/>
+      <c r="N920" s="4"/>
+      <c r="O920" s="4"/>
+      <c r="P920" s="4"/>
+      <c r="Q920" s="4"/>
+      <c r="R920" s="4"/>
+      <c r="S920" s="4"/>
+      <c r="T920" s="4"/>
+      <c r="U920" s="4"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B921" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C921" s="5">
+        <v>45563.69348776327</v>
+      </c>
+      <c r="D921" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E921" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="F921" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G921" s="6">
+        <v>100000.0</v>
+      </c>
+      <c r="H921" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I921" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J921" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K921" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L921" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="M921" s="4"/>
+      <c r="N921" s="4"/>
+      <c r="O921" s="4"/>
+      <c r="P921" s="4"/>
+      <c r="Q921" s="4"/>
+      <c r="R921" s="4"/>
+      <c r="S921" s="4"/>
+      <c r="T921" s="4"/>
+      <c r="U921" s="4"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C922" s="5">
+        <v>45569.69348776338</v>
+      </c>
+      <c r="D922" s="4" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E922" s="6">
+        <v>271.0</v>
+      </c>
+      <c r="F922" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G922" s="6">
+        <v>410000.0</v>
+      </c>
+      <c r="H922" s="4" t="s">
+        <v>3241</v>
+      </c>
+      <c r="I922" s="4" t="s">
+        <v>3242</v>
+      </c>
+      <c r="J922" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="K922" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L922" s="4" t="s">
+        <v>3243</v>
+      </c>
+      <c r="M922" s="4"/>
+      <c r="N922" s="4"/>
+      <c r="O922" s="4"/>
+      <c r="P922" s="4"/>
+      <c r="Q922" s="4"/>
+      <c r="R922" s="4"/>
+      <c r="S922" s="4"/>
+      <c r="T922" s="4"/>
+      <c r="U922" s="4"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C923" s="5">
+        <v>45569.52682109687</v>
+      </c>
+      <c r="D923" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E923" s="6">
+        <v>115.0</v>
+      </c>
+      <c r="F923" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G923" s="6">
+        <v>500000.0</v>
+      </c>
+      <c r="H923" s="4" t="s">
+        <v>3244</v>
+      </c>
+      <c r="I923" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="J923" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K923" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L923" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="M923" s="4"/>
+      <c r="N923" s="4"/>
+      <c r="O923" s="4"/>
+      <c r="P923" s="4"/>
+      <c r="Q923" s="4"/>
+      <c r="R923" s="4"/>
+      <c r="S923" s="4"/>
+      <c r="T923" s="4"/>
+      <c r="U923" s="4"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C924" s="5">
+        <v>45555.69348776369</v>
+      </c>
+      <c r="D924" s="4" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E924" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="F924" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G924" s="6">
+        <v>176000.0</v>
+      </c>
+      <c r="H924" s="4" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I924" s="4" t="s">
+        <v>3249</v>
+      </c>
+      <c r="J924" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K924" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L924" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M924" s="4"/>
+      <c r="N924" s="4"/>
+      <c r="O924" s="4"/>
+      <c r="P924" s="4"/>
+      <c r="Q924" s="4"/>
+      <c r="R924" s="4"/>
+      <c r="S924" s="4"/>
+      <c r="T924" s="4"/>
+      <c r="U924" s="4"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B925" s="4" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C925" s="5">
+        <v>45560.69348776382</v>
+      </c>
+      <c r="D925" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E925" s="6">
+        <v>673.0</v>
+      </c>
+      <c r="F925" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G925" s="6">
+        <v>300000.0</v>
+      </c>
+      <c r="H925" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I925" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="J925" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K925" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L925" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M925" s="4"/>
+      <c r="N925" s="4"/>
+      <c r="O925" s="4"/>
+      <c r="P925" s="4"/>
+      <c r="Q925" s="4"/>
+      <c r="R925" s="4"/>
+      <c r="S925" s="4"/>
+      <c r="T925" s="4"/>
+      <c r="U925" s="4"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C926" s="5">
+        <v>45556.69348776394</v>
+      </c>
+      <c r="D926" s="4" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E926" s="6">
+        <v>39.0</v>
+      </c>
+      <c r="F926" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G926" s="6">
+        <v>300000.0</v>
+      </c>
+      <c r="H926" s="4" t="s">
+        <v>3256</v>
+      </c>
+      <c r="I926" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="J926" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="K926" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L926" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="M926" s="4"/>
+      <c r="N926" s="4"/>
+      <c r="O926" s="4"/>
+      <c r="P926" s="4"/>
+      <c r="Q926" s="4"/>
+      <c r="R926" s="4"/>
+      <c r="S926" s="4"/>
+      <c r="T926" s="4"/>
+      <c r="U926" s="4"/>
+    </row>
   </sheetData>
+  <autoFilter ref="$A$1:$U$102"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H283"/>
   </hyperlinks>
